--- a/observations/orbit_plans/mtp040/nomad_mtp040_plan.xlsx
+++ b/observations/orbit_plans/mtp040/nomad_mtp040_plan.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp040\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB49147-E390-4291-A7BC-E0B15B6D9F91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -298,9 +304,6 @@
     <t>2021 APR 20 09:10:35</t>
   </si>
   <si>
-    <t xml:space="preserve">&amp;mergedMatch:CERBERUS FOSSAE; </t>
-  </si>
-  <si>
     <t>uvisGrazing</t>
   </si>
   <si>
@@ -1712,13 +1715,16 @@
   </si>
   <si>
     <t xml:space="preserve">&amp;daysideMatch:EAST THAUMASIA; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;grazingMatch:CERBERUS FOSSAE; </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1755,6 +1761,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1801,7 +1815,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1833,9 +1847,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1867,6 +1899,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2042,14 +2092,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2090,7 +2142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>14</v>
       </c>
@@ -2104,7 +2156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2136,7 +2188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>14</v>
       </c>
@@ -2150,7 +2202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2185,7 +2237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>14</v>
       </c>
@@ -2199,7 +2251,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2234,7 +2286,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>14</v>
       </c>
@@ -2248,7 +2300,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>14</v>
       </c>
@@ -2262,7 +2314,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2294,7 +2346,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14</v>
       </c>
@@ -2308,7 +2360,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>14</v>
       </c>
@@ -2322,7 +2374,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2357,7 +2409,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2371,7 +2423,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2385,7 +2437,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2417,7 +2469,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2434,7 +2486,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2466,7 +2518,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2498,7 +2550,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
@@ -2512,7 +2564,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2544,7 +2596,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>14</v>
       </c>
@@ -2558,7 +2610,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2593,7 +2645,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>14</v>
       </c>
@@ -2607,7 +2659,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>14</v>
       </c>
@@ -2621,7 +2673,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>14</v>
       </c>
@@ -2635,7 +2687,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2667,7 +2719,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2699,7 +2751,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>14</v>
       </c>
@@ -2713,7 +2765,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -2736,7 +2788,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>14</v>
       </c>
@@ -2750,7 +2802,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5</v>
       </c>
@@ -2776,7 +2828,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5</v>
       </c>
@@ -2799,7 +2851,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>14</v>
       </c>
@@ -2813,7 +2865,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>5</v>
       </c>
@@ -2824,7 +2876,7 @@
         <v>53</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I35" t="s">
         <v>8</v>
@@ -2833,10 +2885,10 @@
         <v>93</v>
       </c>
       <c r="M35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>5</v>
       </c>
@@ -2847,36 +2899,36 @@
         <v>77</v>
       </c>
       <c r="D36" t="s">
+        <v>94</v>
+      </c>
+      <c r="H36" t="s">
         <v>95</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
+        <v>8</v>
+      </c>
+      <c r="L36" t="s">
         <v>96</v>
       </c>
-      <c r="I36" t="s">
-        <v>8</v>
-      </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>97</v>
       </c>
-      <c r="M36" t="s">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>8</v>
+      </c>
+      <c r="L37" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37">
-        <v>14</v>
-      </c>
-      <c r="I37" t="s">
-        <v>8</v>
-      </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>99</v>
       </c>
-      <c r="M37" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5</v>
       </c>
@@ -2887,7 +2939,7 @@
         <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H38" t="s">
         <v>43</v>
@@ -2896,41 +2948,41 @@
         <v>8</v>
       </c>
       <c r="L38" t="s">
+        <v>100</v>
+      </c>
+      <c r="M38" t="s">
         <v>101</v>
       </c>
-      <c r="M38" t="s">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>8</v>
+      </c>
+      <c r="L39" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39">
-        <v>14</v>
-      </c>
-      <c r="I39" t="s">
-        <v>8</v>
-      </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>103</v>
       </c>
-      <c r="M39" t="s">
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L40" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40">
-        <v>14</v>
-      </c>
-      <c r="I40" t="s">
-        <v>8</v>
-      </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>105</v>
       </c>
-      <c r="M40" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5</v>
       </c>
@@ -2941,33 +2993,33 @@
         <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I41" t="s">
         <v>8</v>
       </c>
       <c r="L41" t="s">
+        <v>106</v>
+      </c>
+      <c r="M41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" t="s">
         <v>107</v>
       </c>
-      <c r="M41" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42">
-        <v>14</v>
-      </c>
-      <c r="I42" t="s">
-        <v>8</v>
-      </c>
-      <c r="L42" t="s">
-        <v>108</v>
-      </c>
       <c r="M42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5</v>
       </c>
@@ -2978,50 +3030,50 @@
         <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H43" t="s">
+        <v>108</v>
+      </c>
+      <c r="I43" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" t="s">
         <v>109</v>
       </c>
-      <c r="I43" t="s">
-        <v>8</v>
-      </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" t="s">
         <v>110</v>
       </c>
-      <c r="M43" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44">
-        <v>14</v>
-      </c>
-      <c r="I44" t="s">
-        <v>8</v>
-      </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>111</v>
       </c>
-      <c r="M44" t="s">
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45">
-        <v>14</v>
-      </c>
-      <c r="I45" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" t="s">
-        <v>113</v>
-      </c>
       <c r="M45" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5</v>
       </c>
@@ -3032,19 +3084,19 @@
         <v>81</v>
       </c>
       <c r="D46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I46" t="s">
         <v>8</v>
       </c>
       <c r="L46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M46" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5</v>
       </c>
@@ -3055,325 +3107,325 @@
         <v>77</v>
       </c>
       <c r="D47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I47" t="s">
         <v>8</v>
       </c>
       <c r="L47" t="s">
+        <v>114</v>
+      </c>
+      <c r="M47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" t="s">
         <v>115</v>
       </c>
-      <c r="M47" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48">
-        <v>14</v>
-      </c>
-      <c r="I48" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>116</v>
       </c>
-      <c r="M48" t="s">
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49">
-        <v>14</v>
-      </c>
-      <c r="I49" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="H50" t="s">
         <v>118</v>
       </c>
-      <c r="M49" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50">
-        <v>3</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
+        <v>8</v>
+      </c>
+      <c r="L50" t="s">
         <v>119</v>
       </c>
-      <c r="I50" t="s">
-        <v>8</v>
-      </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>120</v>
       </c>
-      <c r="M50" t="s">
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51">
-        <v>14</v>
-      </c>
-      <c r="I51" t="s">
-        <v>8</v>
-      </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" t="s">
         <v>122</v>
       </c>
-      <c r="M51" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52">
-        <v>14</v>
-      </c>
-      <c r="I52" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>123</v>
       </c>
-      <c r="M52" t="s">
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>8</v>
+      </c>
+      <c r="H53" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53">
-        <v>8</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
+        <v>8</v>
+      </c>
+      <c r="L53" t="s">
         <v>125</v>
       </c>
-      <c r="I53" t="s">
-        <v>8</v>
-      </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" t="s">
         <v>126</v>
       </c>
-      <c r="M53" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54">
-        <v>14</v>
-      </c>
-      <c r="I54" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>8</v>
+      </c>
+      <c r="L55" t="s">
         <v>127</v>
       </c>
-      <c r="M54" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55">
-        <v>14</v>
-      </c>
-      <c r="I55" t="s">
-        <v>8</v>
-      </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>8</v>
+      </c>
+      <c r="L56" t="s">
         <v>128</v>
       </c>
-      <c r="M55" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56">
-        <v>14</v>
-      </c>
-      <c r="I56" t="s">
-        <v>8</v>
-      </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>129</v>
       </c>
-      <c r="M56" t="s">
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57">
-        <v>14</v>
-      </c>
-      <c r="I57" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="H58" t="s">
         <v>131</v>
       </c>
-      <c r="M57" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58">
-        <v>3</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" t="s">
         <v>132</v>
       </c>
-      <c r="I58" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>133</v>
       </c>
-      <c r="M58" t="s">
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59">
-        <v>14</v>
-      </c>
-      <c r="I59" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" t="s">
         <v>135</v>
       </c>
-      <c r="M59" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60">
-        <v>14</v>
-      </c>
-      <c r="I60" t="s">
-        <v>8</v>
-      </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>136</v>
       </c>
-      <c r="M60" t="s">
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>8</v>
+      </c>
+      <c r="L61" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61">
-        <v>14</v>
-      </c>
-      <c r="I61" t="s">
-        <v>8</v>
-      </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" t="s">
         <v>138</v>
       </c>
-      <c r="M61" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62">
-        <v>14</v>
-      </c>
-      <c r="I62" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>139</v>
       </c>
-      <c r="M62" t="s">
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>8</v>
+      </c>
+      <c r="L63" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63">
-        <v>14</v>
-      </c>
-      <c r="I63" t="s">
-        <v>8</v>
-      </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>8</v>
+      </c>
+      <c r="L64" t="s">
         <v>141</v>
       </c>
-      <c r="M63" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64">
-        <v>14</v>
-      </c>
-      <c r="I64" t="s">
-        <v>8</v>
-      </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>142</v>
       </c>
-      <c r="M64" t="s">
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="H65" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65">
-        <v>3</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
+        <v>8</v>
+      </c>
+      <c r="L65" t="s">
         <v>144</v>
       </c>
-      <c r="I65" t="s">
-        <v>8</v>
-      </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>8</v>
+      </c>
+      <c r="L66" t="s">
         <v>145</v>
       </c>
-      <c r="M65" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66">
-        <v>14</v>
-      </c>
-      <c r="I66" t="s">
-        <v>8</v>
-      </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>8</v>
+      </c>
+      <c r="L67" t="s">
         <v>146</v>
       </c>
-      <c r="M66" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67">
-        <v>14</v>
-      </c>
-      <c r="I67" t="s">
-        <v>8</v>
-      </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>8</v>
+      </c>
+      <c r="L68" t="s">
         <v>147</v>
       </c>
-      <c r="M67" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68">
-        <v>14</v>
-      </c>
-      <c r="I68" t="s">
-        <v>8</v>
-      </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>148</v>
       </c>
-      <c r="M68" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>7</v>
       </c>
@@ -3381,120 +3433,120 @@
         <v>8</v>
       </c>
       <c r="J69" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K69" t="s">
         <v>10</v>
       </c>
       <c r="L69" t="s">
+        <v>150</v>
+      </c>
+      <c r="M69" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>8</v>
+      </c>
+      <c r="L70" t="s">
         <v>151</v>
       </c>
-      <c r="M69" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70">
-        <v>14</v>
-      </c>
-      <c r="I70" t="s">
-        <v>8</v>
-      </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>8</v>
+      </c>
+      <c r="L71" t="s">
         <v>152</v>
       </c>
-      <c r="M70" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="A71">
-        <v>14</v>
-      </c>
-      <c r="I71" t="s">
-        <v>8</v>
-      </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>8</v>
+      </c>
+      <c r="H72" t="s">
+        <v>124</v>
+      </c>
+      <c r="I72" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" t="s">
         <v>153</v>
       </c>
-      <c r="M71" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72">
-        <v>8</v>
-      </c>
-      <c r="H72" t="s">
-        <v>125</v>
-      </c>
-      <c r="I72" t="s">
-        <v>8</v>
-      </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>154</v>
       </c>
-      <c r="M72" t="s">
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>8</v>
+      </c>
+      <c r="L73" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73">
-        <v>14</v>
-      </c>
-      <c r="I73" t="s">
-        <v>8</v>
-      </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>8</v>
+      </c>
+      <c r="L74" t="s">
         <v>156</v>
       </c>
-      <c r="M73" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74">
-        <v>14</v>
-      </c>
-      <c r="I74" t="s">
-        <v>8</v>
-      </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
         <v>157</v>
       </c>
-      <c r="M74" t="s">
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>8</v>
+      </c>
+      <c r="L75" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75">
-        <v>14</v>
-      </c>
-      <c r="I75" t="s">
-        <v>8</v>
-      </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>8</v>
+      </c>
+      <c r="L76" t="s">
         <v>159</v>
       </c>
-      <c r="M75" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76">
-        <v>14</v>
-      </c>
-      <c r="I76" t="s">
-        <v>8</v>
-      </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>160</v>
       </c>
-      <c r="M76" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>3</v>
       </c>
@@ -3505,493 +3557,493 @@
         <v>8</v>
       </c>
       <c r="L77" t="s">
+        <v>161</v>
+      </c>
+      <c r="M77" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>8</v>
+      </c>
+      <c r="L78" t="s">
         <v>162</v>
       </c>
-      <c r="M77" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78">
-        <v>14</v>
-      </c>
-      <c r="I78" t="s">
-        <v>8</v>
-      </c>
-      <c r="L78" t="s">
-        <v>163</v>
-      </c>
       <c r="M78" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>28</v>
       </c>
       <c r="H79" t="s">
+        <v>163</v>
+      </c>
+      <c r="I79" t="s">
         <v>164</v>
       </c>
-      <c r="I79" t="s">
+      <c r="L79" t="s">
         <v>165</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
         <v>166</v>
       </c>
-      <c r="M79" t="s">
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>8</v>
+      </c>
+      <c r="L80" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80">
-        <v>14</v>
-      </c>
-      <c r="I80" t="s">
-        <v>8</v>
-      </c>
-      <c r="L80" t="s">
+      <c r="M80" t="s">
         <v>168</v>
       </c>
-      <c r="M80" t="s">
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>8</v>
+      </c>
+      <c r="L81" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
-      <c r="A81">
-        <v>14</v>
-      </c>
-      <c r="I81" t="s">
-        <v>8</v>
-      </c>
-      <c r="L81" t="s">
+      <c r="M81" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>8</v>
+      </c>
+      <c r="L82" t="s">
         <v>170</v>
       </c>
-      <c r="M81" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="A82">
-        <v>14</v>
-      </c>
-      <c r="I82" t="s">
-        <v>8</v>
-      </c>
-      <c r="L82" t="s">
-        <v>171</v>
-      </c>
       <c r="M82" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>28</v>
       </c>
       <c r="H83" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I83" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L83" t="s">
+        <v>171</v>
+      </c>
+      <c r="M83" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>8</v>
+      </c>
+      <c r="L84" t="s">
         <v>172</v>
       </c>
-      <c r="M83" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84">
-        <v>14</v>
-      </c>
-      <c r="I84" t="s">
-        <v>8</v>
-      </c>
-      <c r="L84" t="s">
+      <c r="M84" t="s">
         <v>173</v>
       </c>
-      <c r="M84" t="s">
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>8</v>
+      </c>
+      <c r="L85" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="85" spans="1:13">
-      <c r="A85">
-        <v>14</v>
-      </c>
-      <c r="I85" t="s">
-        <v>8</v>
-      </c>
-      <c r="L85" t="s">
+      <c r="M85" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>14</v>
+      </c>
+      <c r="L86" t="s">
         <v>175</v>
       </c>
-      <c r="M85" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86">
-        <v>14</v>
-      </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>176</v>
       </c>
-      <c r="M86" t="s">
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>14</v>
+      </c>
+      <c r="L87" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87">
-        <v>14</v>
-      </c>
-      <c r="L87" t="s">
+      <c r="M87" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="H88" t="s">
         <v>178</v>
       </c>
-      <c r="M87" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="A88">
-        <v>3</v>
-      </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
+        <v>8</v>
+      </c>
+      <c r="L88" t="s">
         <v>179</v>
       </c>
-      <c r="I88" t="s">
-        <v>8</v>
-      </c>
-      <c r="L88" t="s">
+      <c r="M88" t="s">
         <v>180</v>
       </c>
-      <c r="M88" t="s">
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>8</v>
+      </c>
+      <c r="L89" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89">
-        <v>14</v>
-      </c>
-      <c r="I89" t="s">
-        <v>8</v>
-      </c>
-      <c r="L89" t="s">
+      <c r="M89" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>8</v>
+      </c>
+      <c r="L90" t="s">
         <v>182</v>
       </c>
-      <c r="M89" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90">
-        <v>14</v>
-      </c>
-      <c r="I90" t="s">
-        <v>8</v>
-      </c>
-      <c r="L90" t="s">
+      <c r="M90" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" t="s">
         <v>183</v>
       </c>
-      <c r="M90" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="A91">
-        <v>14</v>
-      </c>
-      <c r="I91" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" t="s">
+      <c r="M91" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>8</v>
+      </c>
+      <c r="L92" t="s">
         <v>184</v>
       </c>
-      <c r="M91" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92">
-        <v>14</v>
-      </c>
-      <c r="I92" t="s">
-        <v>8</v>
-      </c>
-      <c r="L92" t="s">
+      <c r="M92" t="s">
         <v>185</v>
       </c>
-      <c r="M92" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>28</v>
       </c>
       <c r="H93" t="s">
+        <v>163</v>
+      </c>
+      <c r="I93" t="s">
         <v>164</v>
       </c>
-      <c r="I93" t="s">
-        <v>165</v>
-      </c>
       <c r="L93" t="s">
+        <v>186</v>
+      </c>
+      <c r="M93" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" t="s">
         <v>187</v>
       </c>
-      <c r="M93" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94">
-        <v>14</v>
-      </c>
-      <c r="I94" t="s">
-        <v>8</v>
-      </c>
-      <c r="L94" t="s">
+      <c r="M94" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>3</v>
+      </c>
+      <c r="H95" t="s">
         <v>188</v>
       </c>
-      <c r="M94" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="A95">
-        <v>3</v>
-      </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
+        <v>8</v>
+      </c>
+      <c r="L95" t="s">
         <v>189</v>
       </c>
-      <c r="I95" t="s">
-        <v>8</v>
-      </c>
-      <c r="L95" t="s">
+      <c r="M95" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>3</v>
+      </c>
+      <c r="H96" t="s">
+        <v>143</v>
+      </c>
+      <c r="I96" t="s">
+        <v>8</v>
+      </c>
+      <c r="L96" t="s">
         <v>190</v>
       </c>
-      <c r="M95" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="A96">
-        <v>3</v>
-      </c>
-      <c r="H96" t="s">
-        <v>144</v>
-      </c>
-      <c r="I96" t="s">
-        <v>8</v>
-      </c>
-      <c r="L96" t="s">
+      <c r="M96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>8</v>
+      </c>
+      <c r="L97" t="s">
         <v>191</v>
       </c>
-      <c r="M96" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
-      <c r="A97">
-        <v>14</v>
-      </c>
-      <c r="I97" t="s">
-        <v>8</v>
-      </c>
-      <c r="L97" t="s">
+      <c r="M97" t="s">
         <v>192</v>
       </c>
-      <c r="M97" t="s">
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>8</v>
+      </c>
+      <c r="L98" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="98" spans="1:13">
-      <c r="A98">
-        <v>14</v>
-      </c>
-      <c r="I98" t="s">
-        <v>8</v>
-      </c>
-      <c r="L98" t="s">
+      <c r="M98" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>8</v>
+      </c>
+      <c r="L99" t="s">
         <v>194</v>
       </c>
-      <c r="M98" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
-      <c r="A99">
-        <v>14</v>
-      </c>
-      <c r="I99" t="s">
-        <v>8</v>
-      </c>
-      <c r="L99" t="s">
+      <c r="M99" t="s">
         <v>195</v>
       </c>
-      <c r="M99" t="s">
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="100" spans="1:13">
-      <c r="A100">
-        <v>14</v>
-      </c>
-      <c r="I100" t="s">
-        <v>8</v>
-      </c>
-      <c r="L100" t="s">
+      <c r="M100" t="s">
         <v>197</v>
       </c>
-      <c r="M100" t="s">
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="101" spans="1:13">
-      <c r="A101">
-        <v>14</v>
-      </c>
-      <c r="I101" t="s">
-        <v>8</v>
-      </c>
-      <c r="L101" t="s">
+      <c r="M101" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>3</v>
+      </c>
+      <c r="H102" t="s">
         <v>199</v>
       </c>
-      <c r="M101" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
-      <c r="A102">
-        <v>3</v>
-      </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" t="s">
         <v>200</v>
       </c>
-      <c r="I102" t="s">
-        <v>8</v>
-      </c>
-      <c r="L102" t="s">
+      <c r="M102" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>8</v>
+      </c>
+      <c r="L103" t="s">
         <v>201</v>
       </c>
-      <c r="M102" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
-      <c r="A103">
-        <v>14</v>
-      </c>
-      <c r="I103" t="s">
-        <v>8</v>
-      </c>
-      <c r="L103" t="s">
+      <c r="M103" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>8</v>
+      </c>
+      <c r="L104" t="s">
         <v>202</v>
       </c>
-      <c r="M103" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
-      <c r="A104">
-        <v>14</v>
-      </c>
-      <c r="I104" t="s">
-        <v>8</v>
-      </c>
-      <c r="L104" t="s">
+      <c r="M104" t="s">
         <v>203</v>
       </c>
-      <c r="M104" t="s">
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>8</v>
+      </c>
+      <c r="L105" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="105" spans="1:13">
-      <c r="A105">
-        <v>14</v>
-      </c>
-      <c r="I105" t="s">
-        <v>8</v>
-      </c>
-      <c r="L105" t="s">
+      <c r="M105" t="s">
         <v>205</v>
       </c>
-      <c r="M105" t="s">
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>8</v>
+      </c>
+      <c r="L106" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="106" spans="1:13">
-      <c r="A106">
-        <v>14</v>
-      </c>
-      <c r="I106" t="s">
-        <v>8</v>
-      </c>
-      <c r="L106" t="s">
+      <c r="M106" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>8</v>
+      </c>
+      <c r="L107" t="s">
         <v>207</v>
       </c>
-      <c r="M106" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
-      <c r="A107">
-        <v>14</v>
-      </c>
-      <c r="I107" t="s">
-        <v>8</v>
-      </c>
-      <c r="L107" t="s">
+      <c r="M107" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>8</v>
+      </c>
+      <c r="H108" t="s">
+        <v>124</v>
+      </c>
+      <c r="I108" t="s">
+        <v>8</v>
+      </c>
+      <c r="L108" t="s">
         <v>208</v>
       </c>
-      <c r="M107" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
-      <c r="A108">
-        <v>8</v>
-      </c>
-      <c r="H108" t="s">
-        <v>125</v>
-      </c>
-      <c r="I108" t="s">
-        <v>8</v>
-      </c>
-      <c r="L108" t="s">
+      <c r="M108" t="s">
         <v>209</v>
       </c>
-      <c r="M108" t="s">
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>8</v>
+      </c>
+      <c r="L109" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="109" spans="1:13">
-      <c r="A109">
-        <v>14</v>
-      </c>
-      <c r="I109" t="s">
-        <v>8</v>
-      </c>
-      <c r="L109" t="s">
+      <c r="M109" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>8</v>
+      </c>
+      <c r="L110" t="s">
         <v>211</v>
       </c>
-      <c r="M109" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
-      <c r="A110">
-        <v>14</v>
-      </c>
-      <c r="I110" t="s">
-        <v>8</v>
-      </c>
-      <c r="L110" t="s">
-        <v>212</v>
-      </c>
       <c r="M110" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>7</v>
       </c>
@@ -3999,423 +4051,423 @@
         <v>8</v>
       </c>
       <c r="J111" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K111" t="s">
         <v>10</v>
       </c>
       <c r="L111" t="s">
+        <v>212</v>
+      </c>
+      <c r="M111" t="s">
         <v>213</v>
       </c>
-      <c r="M111" t="s">
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>8</v>
+      </c>
+      <c r="L112" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="112" spans="1:13">
-      <c r="A112">
-        <v>14</v>
-      </c>
-      <c r="I112" t="s">
-        <v>8</v>
-      </c>
-      <c r="L112" t="s">
+      <c r="M112" t="s">
         <v>215</v>
       </c>
-      <c r="M112" t="s">
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>8</v>
+      </c>
+      <c r="L113" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="113" spans="1:13">
-      <c r="A113">
-        <v>14</v>
-      </c>
-      <c r="I113" t="s">
-        <v>8</v>
-      </c>
-      <c r="L113" t="s">
+      <c r="M113" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>8</v>
+      </c>
+      <c r="L114" t="s">
         <v>217</v>
       </c>
-      <c r="M113" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
-      <c r="A114">
-        <v>14</v>
-      </c>
-      <c r="I114" t="s">
-        <v>8</v>
-      </c>
-      <c r="L114" t="s">
+      <c r="M114" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>3</v>
+      </c>
+      <c r="H115" t="s">
         <v>218</v>
       </c>
-      <c r="M114" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
-      <c r="A115">
-        <v>3</v>
-      </c>
-      <c r="H115" t="s">
+      <c r="I115" t="s">
+        <v>8</v>
+      </c>
+      <c r="L115" t="s">
         <v>219</v>
       </c>
-      <c r="I115" t="s">
-        <v>8</v>
-      </c>
-      <c r="L115" t="s">
+      <c r="M115" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>8</v>
+      </c>
+      <c r="L116" t="s">
         <v>220</v>
       </c>
-      <c r="M115" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
-      <c r="A116">
-        <v>14</v>
-      </c>
-      <c r="I116" t="s">
-        <v>8</v>
-      </c>
-      <c r="L116" t="s">
+      <c r="M116" t="s">
         <v>221</v>
       </c>
-      <c r="M116" t="s">
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>8</v>
+      </c>
+      <c r="L117" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="117" spans="1:13">
-      <c r="A117">
-        <v>14</v>
-      </c>
-      <c r="I117" t="s">
-        <v>8</v>
-      </c>
-      <c r="L117" t="s">
+      <c r="M117" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>8</v>
+      </c>
+      <c r="L118" t="s">
         <v>223</v>
       </c>
-      <c r="M117" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
-      <c r="A118">
-        <v>14</v>
-      </c>
-      <c r="I118" t="s">
-        <v>8</v>
-      </c>
-      <c r="L118" t="s">
+      <c r="M118" t="s">
         <v>224</v>
       </c>
-      <c r="M118" t="s">
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>8</v>
+      </c>
+      <c r="L119" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="119" spans="1:13">
-      <c r="A119">
-        <v>14</v>
-      </c>
-      <c r="I119" t="s">
-        <v>8</v>
-      </c>
-      <c r="L119" t="s">
+      <c r="M119" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>8</v>
+      </c>
+      <c r="L120" t="s">
         <v>226</v>
       </c>
-      <c r="M119" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
-      <c r="A120">
-        <v>14</v>
-      </c>
-      <c r="I120" t="s">
-        <v>8</v>
-      </c>
-      <c r="L120" t="s">
+      <c r="M120" t="s">
         <v>227</v>
       </c>
-      <c r="M120" t="s">
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>8</v>
+      </c>
+      <c r="L121" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="121" spans="1:13">
-      <c r="A121">
-        <v>14</v>
-      </c>
-      <c r="I121" t="s">
-        <v>8</v>
-      </c>
-      <c r="L121" t="s">
-        <v>229</v>
-      </c>
       <c r="M121" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>28</v>
       </c>
       <c r="H122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I122" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L122" t="s">
+        <v>229</v>
+      </c>
+      <c r="M122" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>8</v>
+      </c>
+      <c r="L123" t="s">
         <v>230</v>
       </c>
-      <c r="M122" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
-      <c r="A123">
-        <v>14</v>
-      </c>
-      <c r="I123" t="s">
-        <v>8</v>
-      </c>
-      <c r="L123" t="s">
+      <c r="M123" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>8</v>
+      </c>
+      <c r="L124" t="s">
         <v>231</v>
       </c>
-      <c r="M123" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
-      <c r="A124">
-        <v>14</v>
-      </c>
-      <c r="I124" t="s">
-        <v>8</v>
-      </c>
-      <c r="L124" t="s">
+      <c r="M124" t="s">
         <v>232</v>
       </c>
-      <c r="M124" t="s">
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s">
+        <v>8</v>
+      </c>
+      <c r="L125" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="125" spans="1:13">
-      <c r="A125">
-        <v>14</v>
-      </c>
-      <c r="I125" t="s">
-        <v>8</v>
-      </c>
-      <c r="L125" t="s">
+      <c r="M125" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>8</v>
+      </c>
+      <c r="L126" t="s">
         <v>234</v>
       </c>
-      <c r="M125" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
-      <c r="A126">
-        <v>14</v>
-      </c>
-      <c r="I126" t="s">
-        <v>8</v>
-      </c>
-      <c r="L126" t="s">
+      <c r="M126" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>8</v>
+      </c>
+      <c r="L127" t="s">
         <v>235</v>
       </c>
-      <c r="M126" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
-      <c r="A127">
-        <v>14</v>
-      </c>
-      <c r="I127" t="s">
-        <v>8</v>
-      </c>
-      <c r="L127" t="s">
+      <c r="M127" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>3</v>
+      </c>
+      <c r="H128" t="s">
         <v>236</v>
       </c>
-      <c r="M127" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
-      <c r="A128">
-        <v>3</v>
-      </c>
-      <c r="H128" t="s">
+      <c r="I128" t="s">
+        <v>8</v>
+      </c>
+      <c r="L128" t="s">
         <v>237</v>
       </c>
-      <c r="I128" t="s">
-        <v>8</v>
-      </c>
-      <c r="L128" t="s">
+      <c r="M128" t="s">
         <v>238</v>
       </c>
-      <c r="M128" t="s">
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>8</v>
+      </c>
+      <c r="L129" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="129" spans="1:13">
-      <c r="A129">
-        <v>14</v>
-      </c>
-      <c r="I129" t="s">
-        <v>8</v>
-      </c>
-      <c r="L129" t="s">
+      <c r="M129" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s">
+        <v>8</v>
+      </c>
+      <c r="L130" t="s">
         <v>240</v>
       </c>
-      <c r="M129" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13">
-      <c r="A130">
-        <v>14</v>
-      </c>
-      <c r="I130" t="s">
-        <v>8</v>
-      </c>
-      <c r="L130" t="s">
+      <c r="M130" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>8</v>
+      </c>
+      <c r="L131" t="s">
         <v>241</v>
       </c>
-      <c r="M130" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13">
-      <c r="A131">
-        <v>14</v>
-      </c>
-      <c r="I131" t="s">
-        <v>8</v>
-      </c>
-      <c r="L131" t="s">
+      <c r="M131" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>8</v>
+      </c>
+      <c r="L132" t="s">
         <v>242</v>
       </c>
-      <c r="M131" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13">
-      <c r="A132">
-        <v>14</v>
-      </c>
-      <c r="I132" t="s">
-        <v>8</v>
-      </c>
-      <c r="L132" t="s">
+      <c r="M132" t="s">
         <v>243</v>
       </c>
-      <c r="M132" t="s">
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>14</v>
+      </c>
+      <c r="I133" t="s">
+        <v>8</v>
+      </c>
+      <c r="L133" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="133" spans="1:13">
-      <c r="A133">
-        <v>14</v>
-      </c>
-      <c r="I133" t="s">
-        <v>8</v>
-      </c>
-      <c r="L133" t="s">
+      <c r="M133" t="s">
         <v>245</v>
       </c>
-      <c r="M133" t="s">
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>8</v>
+      </c>
+      <c r="L134" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="134" spans="1:13">
-      <c r="A134">
-        <v>14</v>
-      </c>
-      <c r="I134" t="s">
-        <v>8</v>
-      </c>
-      <c r="L134" t="s">
+      <c r="M134" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>8</v>
+      </c>
+      <c r="L135" t="s">
         <v>247</v>
       </c>
-      <c r="M134" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13">
-      <c r="A135">
-        <v>14</v>
-      </c>
-      <c r="I135" t="s">
-        <v>8</v>
-      </c>
-      <c r="L135" t="s">
+      <c r="M135" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>3</v>
+      </c>
+      <c r="H136" t="s">
+        <v>108</v>
+      </c>
+      <c r="I136" t="s">
+        <v>8</v>
+      </c>
+      <c r="L136" t="s">
         <v>248</v>
       </c>
-      <c r="M135" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13">
-      <c r="A136">
-        <v>3</v>
-      </c>
-      <c r="H136" t="s">
-        <v>109</v>
-      </c>
-      <c r="I136" t="s">
-        <v>8</v>
-      </c>
-      <c r="L136" t="s">
+      <c r="M136" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>14</v>
+      </c>
+      <c r="I137" t="s">
+        <v>8</v>
+      </c>
+      <c r="L137" t="s">
         <v>249</v>
       </c>
-      <c r="M136" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13">
-      <c r="A137">
-        <v>14</v>
-      </c>
-      <c r="I137" t="s">
-        <v>8</v>
-      </c>
-      <c r="L137" t="s">
+      <c r="M137" t="s">
         <v>250</v>
       </c>
-      <c r="M137" t="s">
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>8</v>
+      </c>
+      <c r="L138" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="138" spans="1:13">
-      <c r="A138">
-        <v>14</v>
-      </c>
-      <c r="I138" t="s">
-        <v>8</v>
-      </c>
-      <c r="L138" t="s">
+      <c r="M138" t="s">
         <v>252</v>
       </c>
-      <c r="M138" t="s">
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>8</v>
+      </c>
+      <c r="L139" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="139" spans="1:13">
-      <c r="A139">
-        <v>14</v>
-      </c>
-      <c r="I139" t="s">
-        <v>8</v>
-      </c>
-      <c r="L139" t="s">
+      <c r="M139" t="s">
         <v>254</v>
       </c>
-      <c r="M139" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13">
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>7</v>
       </c>
@@ -4423,47 +4475,47 @@
         <v>8</v>
       </c>
       <c r="J140" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K140" t="s">
         <v>10</v>
       </c>
       <c r="L140" t="s">
+        <v>255</v>
+      </c>
+      <c r="M140" t="s">
         <v>256</v>
       </c>
-      <c r="M140" t="s">
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>14</v>
+      </c>
+      <c r="I141" t="s">
+        <v>8</v>
+      </c>
+      <c r="L141" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="141" spans="1:13">
-      <c r="A141">
-        <v>14</v>
-      </c>
-      <c r="I141" t="s">
-        <v>8</v>
-      </c>
-      <c r="L141" t="s">
+      <c r="M141" t="s">
         <v>258</v>
       </c>
-      <c r="M141" t="s">
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>8</v>
+      </c>
+      <c r="L142" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="142" spans="1:13">
-      <c r="A142">
-        <v>14</v>
-      </c>
-      <c r="I142" t="s">
-        <v>8</v>
-      </c>
-      <c r="L142" t="s">
+      <c r="M142" t="s">
         <v>260</v>
       </c>
-      <c r="M142" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13">
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>3</v>
       </c>
@@ -4474,621 +4526,621 @@
         <v>8</v>
       </c>
       <c r="L143" t="s">
+        <v>261</v>
+      </c>
+      <c r="M143" t="s">
         <v>262</v>
       </c>
-      <c r="M143" t="s">
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>8</v>
+      </c>
+      <c r="L144" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="144" spans="1:13">
-      <c r="A144">
-        <v>14</v>
-      </c>
-      <c r="I144" t="s">
-        <v>8</v>
-      </c>
-      <c r="L144" t="s">
+      <c r="M144" t="s">
         <v>264</v>
       </c>
-      <c r="M144" t="s">
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
+        <v>8</v>
+      </c>
+      <c r="L145" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="145" spans="1:13">
-      <c r="A145">
-        <v>14</v>
-      </c>
-      <c r="I145" t="s">
-        <v>8</v>
-      </c>
-      <c r="L145" t="s">
+      <c r="M145" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>14</v>
+      </c>
+      <c r="I146" t="s">
+        <v>8</v>
+      </c>
+      <c r="L146" t="s">
         <v>266</v>
       </c>
-      <c r="M145" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13">
-      <c r="A146">
-        <v>14</v>
-      </c>
-      <c r="I146" t="s">
-        <v>8</v>
-      </c>
-      <c r="L146" t="s">
+      <c r="M146" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>8</v>
+      </c>
+      <c r="L147" t="s">
         <v>267</v>
       </c>
-      <c r="M146" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13">
-      <c r="A147">
-        <v>14</v>
-      </c>
-      <c r="I147" t="s">
-        <v>8</v>
-      </c>
-      <c r="L147" t="s">
+      <c r="M147" t="s">
         <v>268</v>
       </c>
-      <c r="M147" t="s">
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>14</v>
+      </c>
+      <c r="I148" t="s">
+        <v>8</v>
+      </c>
+      <c r="L148" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="148" spans="1:13">
-      <c r="A148">
-        <v>14</v>
-      </c>
-      <c r="I148" t="s">
-        <v>8</v>
-      </c>
-      <c r="L148" t="s">
+      <c r="M148" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>3</v>
+      </c>
+      <c r="H149" t="s">
         <v>270</v>
       </c>
-      <c r="M148" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13">
-      <c r="A149">
-        <v>3</v>
-      </c>
-      <c r="H149" t="s">
+      <c r="I149" t="s">
+        <v>8</v>
+      </c>
+      <c r="L149" t="s">
         <v>271</v>
       </c>
-      <c r="I149" t="s">
-        <v>8</v>
-      </c>
-      <c r="L149" t="s">
+      <c r="M149" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>14</v>
+      </c>
+      <c r="I150" t="s">
+        <v>8</v>
+      </c>
+      <c r="L150" t="s">
         <v>272</v>
       </c>
-      <c r="M149" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13">
-      <c r="A150">
-        <v>14</v>
-      </c>
-      <c r="I150" t="s">
-        <v>8</v>
-      </c>
-      <c r="L150" t="s">
+      <c r="M150" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>14</v>
+      </c>
+      <c r="I151" t="s">
+        <v>8</v>
+      </c>
+      <c r="L151" t="s">
         <v>273</v>
       </c>
-      <c r="M150" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13">
-      <c r="A151">
-        <v>14</v>
-      </c>
-      <c r="I151" t="s">
-        <v>8</v>
-      </c>
-      <c r="L151" t="s">
+      <c r="M151" t="s">
         <v>274</v>
       </c>
-      <c r="M151" t="s">
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>14</v>
+      </c>
+      <c r="I152" t="s">
+        <v>8</v>
+      </c>
+      <c r="L152" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="152" spans="1:13">
-      <c r="A152">
-        <v>14</v>
-      </c>
-      <c r="I152" t="s">
-        <v>8</v>
-      </c>
-      <c r="L152" t="s">
+      <c r="M152" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>3</v>
+      </c>
+      <c r="H153" t="s">
         <v>276</v>
       </c>
-      <c r="M152" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13">
-      <c r="A153">
-        <v>3</v>
-      </c>
-      <c r="H153" t="s">
+      <c r="I153" t="s">
+        <v>8</v>
+      </c>
+      <c r="L153" t="s">
         <v>277</v>
       </c>
-      <c r="I153" t="s">
-        <v>8</v>
-      </c>
-      <c r="L153" t="s">
+      <c r="M153" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>14</v>
+      </c>
+      <c r="I154" t="s">
+        <v>8</v>
+      </c>
+      <c r="L154" t="s">
         <v>278</v>
       </c>
-      <c r="M153" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13">
-      <c r="A154">
-        <v>14</v>
-      </c>
-      <c r="I154" t="s">
-        <v>8</v>
-      </c>
-      <c r="L154" t="s">
+      <c r="M154" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>14</v>
+      </c>
+      <c r="I155" t="s">
+        <v>8</v>
+      </c>
+      <c r="L155" t="s">
         <v>279</v>
       </c>
-      <c r="M154" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13">
-      <c r="A155">
-        <v>14</v>
-      </c>
-      <c r="I155" t="s">
-        <v>8</v>
-      </c>
-      <c r="L155" t="s">
+      <c r="M155" t="s">
         <v>280</v>
       </c>
-      <c r="M155" t="s">
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>14</v>
+      </c>
+      <c r="I156" t="s">
+        <v>8</v>
+      </c>
+      <c r="L156" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="156" spans="1:13">
-      <c r="A156">
-        <v>14</v>
-      </c>
-      <c r="I156" t="s">
-        <v>8</v>
-      </c>
-      <c r="L156" t="s">
+      <c r="M156" t="s">
         <v>282</v>
       </c>
-      <c r="M156" t="s">
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>14</v>
+      </c>
+      <c r="L157" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="157" spans="1:13">
-      <c r="A157">
-        <v>14</v>
-      </c>
-      <c r="L157" t="s">
+      <c r="M157" t="s">
         <v>284</v>
       </c>
-      <c r="M157" t="s">
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>14</v>
+      </c>
+      <c r="I158" t="s">
+        <v>8</v>
+      </c>
+      <c r="L158" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="158" spans="1:13">
-      <c r="A158">
-        <v>14</v>
-      </c>
-      <c r="I158" t="s">
-        <v>8</v>
-      </c>
-      <c r="L158" t="s">
+      <c r="M158" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>14</v>
+      </c>
+      <c r="I159" t="s">
+        <v>8</v>
+      </c>
+      <c r="L159" t="s">
         <v>286</v>
       </c>
-      <c r="M158" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13">
-      <c r="A159">
-        <v>14</v>
-      </c>
-      <c r="I159" t="s">
-        <v>8</v>
-      </c>
-      <c r="L159" t="s">
+      <c r="M159" t="s">
         <v>287</v>
       </c>
-      <c r="M159" t="s">
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>14</v>
+      </c>
+      <c r="I160" t="s">
+        <v>8</v>
+      </c>
+      <c r="L160" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="160" spans="1:13">
-      <c r="A160">
-        <v>14</v>
-      </c>
-      <c r="I160" t="s">
-        <v>8</v>
-      </c>
-      <c r="L160" t="s">
+      <c r="M160" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>3</v>
+      </c>
+      <c r="H161" t="s">
+        <v>188</v>
+      </c>
+      <c r="I161" t="s">
+        <v>8</v>
+      </c>
+      <c r="L161" t="s">
         <v>289</v>
       </c>
-      <c r="M160" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13">
-      <c r="A161">
-        <v>3</v>
-      </c>
-      <c r="H161" t="s">
-        <v>189</v>
-      </c>
-      <c r="I161" t="s">
-        <v>8</v>
-      </c>
-      <c r="L161" t="s">
+      <c r="M161" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>14</v>
+      </c>
+      <c r="I162" t="s">
+        <v>8</v>
+      </c>
+      <c r="L162" t="s">
         <v>290</v>
       </c>
-      <c r="M161" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13">
-      <c r="A162">
-        <v>14</v>
-      </c>
-      <c r="I162" t="s">
-        <v>8</v>
-      </c>
-      <c r="L162" t="s">
+      <c r="M162" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>14</v>
+      </c>
+      <c r="I163" t="s">
+        <v>8</v>
+      </c>
+      <c r="L163" t="s">
         <v>291</v>
       </c>
-      <c r="M162" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13">
-      <c r="A163">
-        <v>14</v>
-      </c>
-      <c r="I163" t="s">
-        <v>8</v>
-      </c>
-      <c r="L163" t="s">
+      <c r="M163" t="s">
         <v>292</v>
       </c>
-      <c r="M163" t="s">
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>14</v>
+      </c>
+      <c r="I164" t="s">
+        <v>8</v>
+      </c>
+      <c r="L164" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="164" spans="1:13">
-      <c r="A164">
-        <v>14</v>
-      </c>
-      <c r="I164" t="s">
-        <v>8</v>
-      </c>
-      <c r="L164" t="s">
+      <c r="M164" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>14</v>
+      </c>
+      <c r="I165" t="s">
+        <v>8</v>
+      </c>
+      <c r="L165" t="s">
         <v>294</v>
       </c>
-      <c r="M164" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13">
-      <c r="A165">
-        <v>14</v>
-      </c>
-      <c r="I165" t="s">
-        <v>8</v>
-      </c>
-      <c r="L165" t="s">
+      <c r="M165" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>14</v>
+      </c>
+      <c r="I166" t="s">
+        <v>8</v>
+      </c>
+      <c r="L166" t="s">
         <v>295</v>
       </c>
-      <c r="M165" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13">
-      <c r="A166">
-        <v>14</v>
-      </c>
-      <c r="I166" t="s">
-        <v>8</v>
-      </c>
-      <c r="L166" t="s">
+      <c r="M166" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>3</v>
+      </c>
+      <c r="H167" t="s">
         <v>296</v>
       </c>
-      <c r="M166" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13">
-      <c r="A167">
-        <v>3</v>
-      </c>
-      <c r="H167" t="s">
+      <c r="I167" t="s">
+        <v>8</v>
+      </c>
+      <c r="L167" t="s">
         <v>297</v>
       </c>
-      <c r="I167" t="s">
-        <v>8</v>
-      </c>
-      <c r="L167" t="s">
+      <c r="M167" t="s">
         <v>298</v>
       </c>
-      <c r="M167" t="s">
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>14</v>
+      </c>
+      <c r="I168" t="s">
+        <v>8</v>
+      </c>
+      <c r="L168" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="168" spans="1:13">
-      <c r="A168">
-        <v>14</v>
-      </c>
-      <c r="I168" t="s">
-        <v>8</v>
-      </c>
-      <c r="L168" t="s">
+      <c r="M168" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>14</v>
+      </c>
+      <c r="I169" t="s">
+        <v>8</v>
+      </c>
+      <c r="L169" t="s">
         <v>300</v>
       </c>
-      <c r="M168" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13">
-      <c r="A169">
-        <v>14</v>
-      </c>
-      <c r="I169" t="s">
-        <v>8</v>
-      </c>
-      <c r="L169" t="s">
+      <c r="M169" t="s">
         <v>301</v>
       </c>
-      <c r="M169" t="s">
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>14</v>
+      </c>
+      <c r="I170" t="s">
+        <v>8</v>
+      </c>
+      <c r="L170" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="170" spans="1:13">
-      <c r="A170">
-        <v>14</v>
-      </c>
-      <c r="I170" t="s">
-        <v>8</v>
-      </c>
-      <c r="L170" t="s">
+      <c r="M170" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>14</v>
+      </c>
+      <c r="L171" t="s">
         <v>303</v>
       </c>
-      <c r="M170" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13">
-      <c r="A171">
-        <v>14</v>
-      </c>
-      <c r="L171" t="s">
+      <c r="M171" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>14</v>
+      </c>
+      <c r="L172" t="s">
         <v>304</v>
       </c>
-      <c r="M171" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13">
-      <c r="A172">
-        <v>14</v>
-      </c>
-      <c r="L172" t="s">
+      <c r="M172" t="s">
         <v>305</v>
       </c>
-      <c r="M172" t="s">
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>14</v>
+      </c>
+      <c r="I173" t="s">
+        <v>8</v>
+      </c>
+      <c r="L173" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="173" spans="1:13">
-      <c r="A173">
-        <v>14</v>
-      </c>
-      <c r="I173" t="s">
-        <v>8</v>
-      </c>
-      <c r="L173" t="s">
+      <c r="M173" t="s">
         <v>307</v>
       </c>
-      <c r="M173" t="s">
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>3</v>
+      </c>
+      <c r="H174" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="174" spans="1:13">
-      <c r="A174">
-        <v>3</v>
-      </c>
-      <c r="H174" t="s">
+      <c r="I174" t="s">
+        <v>8</v>
+      </c>
+      <c r="L174" t="s">
         <v>309</v>
       </c>
-      <c r="I174" t="s">
-        <v>8</v>
-      </c>
-      <c r="L174" t="s">
+      <c r="M174" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>14</v>
+      </c>
+      <c r="I175" t="s">
+        <v>8</v>
+      </c>
+      <c r="L175" t="s">
         <v>310</v>
       </c>
-      <c r="M174" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13">
-      <c r="A175">
-        <v>14</v>
-      </c>
-      <c r="I175" t="s">
-        <v>8</v>
-      </c>
-      <c r="L175" t="s">
+      <c r="M175" t="s">
         <v>311</v>
       </c>
-      <c r="M175" t="s">
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>14</v>
+      </c>
+      <c r="I176" t="s">
+        <v>8</v>
+      </c>
+      <c r="L176" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="176" spans="1:13">
-      <c r="A176">
-        <v>14</v>
-      </c>
-      <c r="I176" t="s">
-        <v>8</v>
-      </c>
-      <c r="L176" t="s">
+      <c r="M176" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>14</v>
+      </c>
+      <c r="L177" t="s">
         <v>313</v>
       </c>
-      <c r="M176" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13">
-      <c r="A177">
-        <v>14</v>
-      </c>
-      <c r="L177" t="s">
+      <c r="M177" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>14</v>
+      </c>
+      <c r="I178" t="s">
+        <v>8</v>
+      </c>
+      <c r="L178" t="s">
         <v>314</v>
       </c>
-      <c r="M177" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13">
-      <c r="A178">
-        <v>14</v>
-      </c>
-      <c r="I178" t="s">
-        <v>8</v>
-      </c>
-      <c r="L178" t="s">
+      <c r="M178" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>14</v>
+      </c>
+      <c r="I179" t="s">
+        <v>8</v>
+      </c>
+      <c r="L179" t="s">
         <v>315</v>
       </c>
-      <c r="M178" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13">
-      <c r="A179">
-        <v>14</v>
-      </c>
-      <c r="I179" t="s">
-        <v>8</v>
-      </c>
-      <c r="L179" t="s">
+      <c r="M179" t="s">
         <v>316</v>
       </c>
-      <c r="M179" t="s">
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>14</v>
+      </c>
+      <c r="I180" t="s">
+        <v>8</v>
+      </c>
+      <c r="L180" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="180" spans="1:13">
-      <c r="A180">
-        <v>14</v>
-      </c>
-      <c r="I180" t="s">
-        <v>8</v>
-      </c>
-      <c r="L180" t="s">
+      <c r="M180" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>8</v>
+      </c>
+      <c r="H181" t="s">
+        <v>163</v>
+      </c>
+      <c r="I181" t="s">
+        <v>8</v>
+      </c>
+      <c r="L181" t="s">
         <v>318</v>
       </c>
-      <c r="M180" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13">
-      <c r="A181">
-        <v>8</v>
-      </c>
-      <c r="H181" t="s">
-        <v>164</v>
-      </c>
-      <c r="I181" t="s">
-        <v>8</v>
-      </c>
-      <c r="L181" t="s">
+      <c r="M181" t="s">
         <v>319</v>
       </c>
-      <c r="M181" t="s">
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>14</v>
+      </c>
+      <c r="I182" t="s">
+        <v>8</v>
+      </c>
+      <c r="L182" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="182" spans="1:13">
-      <c r="A182">
-        <v>14</v>
-      </c>
-      <c r="I182" t="s">
-        <v>8</v>
-      </c>
-      <c r="L182" t="s">
+      <c r="M182" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>14</v>
+      </c>
+      <c r="I183" t="s">
+        <v>8</v>
+      </c>
+      <c r="L183" t="s">
         <v>321</v>
       </c>
-      <c r="M182" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13">
-      <c r="A183">
-        <v>14</v>
-      </c>
-      <c r="I183" t="s">
-        <v>8</v>
-      </c>
-      <c r="L183" t="s">
+      <c r="M183" t="s">
         <v>322</v>
       </c>
-      <c r="M183" t="s">
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>14</v>
+      </c>
+      <c r="I184" t="s">
+        <v>8</v>
+      </c>
+      <c r="L184" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="184" spans="1:13">
-      <c r="A184">
-        <v>14</v>
-      </c>
-      <c r="I184" t="s">
-        <v>8</v>
-      </c>
-      <c r="L184" t="s">
+      <c r="M184" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>14</v>
+      </c>
+      <c r="I185" t="s">
+        <v>8</v>
+      </c>
+      <c r="L185" t="s">
         <v>324</v>
       </c>
-      <c r="M184" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13">
-      <c r="A185">
-        <v>14</v>
-      </c>
-      <c r="I185" t="s">
-        <v>8</v>
-      </c>
-      <c r="L185" t="s">
+      <c r="M185" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>14</v>
+      </c>
+      <c r="I186" t="s">
+        <v>8</v>
+      </c>
+      <c r="L186" t="s">
         <v>325</v>
       </c>
-      <c r="M185" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13">
-      <c r="A186">
-        <v>14</v>
-      </c>
-      <c r="I186" t="s">
-        <v>8</v>
-      </c>
-      <c r="L186" t="s">
-        <v>326</v>
-      </c>
       <c r="M186" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>3</v>
       </c>
@@ -5099,41 +5151,41 @@
         <v>8</v>
       </c>
       <c r="L187" t="s">
+        <v>326</v>
+      </c>
+      <c r="M187" t="s">
         <v>327</v>
       </c>
-      <c r="M187" t="s">
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>14</v>
+      </c>
+      <c r="I188" t="s">
+        <v>8</v>
+      </c>
+      <c r="L188" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="188" spans="1:13">
-      <c r="A188">
-        <v>14</v>
-      </c>
-      <c r="I188" t="s">
-        <v>8</v>
-      </c>
-      <c r="L188" t="s">
+      <c r="M188" t="s">
         <v>329</v>
       </c>
-      <c r="M188" t="s">
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>14</v>
+      </c>
+      <c r="I189" t="s">
+        <v>8</v>
+      </c>
+      <c r="L189" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="189" spans="1:13">
-      <c r="A189">
-        <v>14</v>
-      </c>
-      <c r="I189" t="s">
-        <v>8</v>
-      </c>
-      <c r="L189" t="s">
-        <v>331</v>
-      </c>
       <c r="M189" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>7</v>
       </c>
@@ -5141,151 +5193,151 @@
         <v>8</v>
       </c>
       <c r="J190" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K190" t="s">
         <v>10</v>
       </c>
       <c r="L190" t="s">
+        <v>331</v>
+      </c>
+      <c r="M190" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>14</v>
+      </c>
+      <c r="I191" t="s">
+        <v>8</v>
+      </c>
+      <c r="L191" t="s">
         <v>332</v>
       </c>
-      <c r="M190" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13">
-      <c r="A191">
-        <v>14</v>
-      </c>
-      <c r="I191" t="s">
-        <v>8</v>
-      </c>
-      <c r="L191" t="s">
+      <c r="M191" t="s">
         <v>333</v>
       </c>
-      <c r="M191" t="s">
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>14</v>
+      </c>
+      <c r="I192" t="s">
+        <v>8</v>
+      </c>
+      <c r="L192" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="192" spans="1:13">
-      <c r="A192">
-        <v>14</v>
-      </c>
-      <c r="I192" t="s">
-        <v>8</v>
-      </c>
-      <c r="L192" t="s">
+      <c r="M192" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>14</v>
+      </c>
+      <c r="I193" t="s">
+        <v>8</v>
+      </c>
+      <c r="L193" t="s">
         <v>335</v>
       </c>
-      <c r="M192" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13">
-      <c r="A193">
-        <v>14</v>
-      </c>
-      <c r="I193" t="s">
-        <v>8</v>
-      </c>
-      <c r="L193" t="s">
-        <v>336</v>
-      </c>
       <c r="M193" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>28</v>
       </c>
       <c r="H194" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I194" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L194" t="s">
+        <v>336</v>
+      </c>
+      <c r="M194" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>3</v>
+      </c>
+      <c r="H195" t="s">
+        <v>108</v>
+      </c>
+      <c r="I195" t="s">
+        <v>8</v>
+      </c>
+      <c r="L195" t="s">
         <v>337</v>
       </c>
-      <c r="M194" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13">
-      <c r="A195">
-        <v>3</v>
-      </c>
-      <c r="H195" t="s">
-        <v>109</v>
-      </c>
-      <c r="I195" t="s">
-        <v>8</v>
-      </c>
-      <c r="L195" t="s">
+      <c r="M195" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>14</v>
+      </c>
+      <c r="I196" t="s">
+        <v>8</v>
+      </c>
+      <c r="L196" t="s">
         <v>338</v>
       </c>
-      <c r="M195" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13">
-      <c r="A196">
-        <v>14</v>
-      </c>
-      <c r="I196" t="s">
-        <v>8</v>
-      </c>
-      <c r="L196" t="s">
+      <c r="M196" t="s">
         <v>339</v>
       </c>
-      <c r="M196" t="s">
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>14</v>
+      </c>
+      <c r="I197" t="s">
+        <v>8</v>
+      </c>
+      <c r="L197" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="197" spans="1:13">
-      <c r="A197">
-        <v>14</v>
-      </c>
-      <c r="I197" t="s">
-        <v>8</v>
-      </c>
-      <c r="L197" t="s">
+      <c r="M197" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>14</v>
+      </c>
+      <c r="I198" t="s">
+        <v>8</v>
+      </c>
+      <c r="L198" t="s">
         <v>341</v>
       </c>
-      <c r="M197" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13">
-      <c r="A198">
-        <v>14</v>
-      </c>
-      <c r="I198" t="s">
-        <v>8</v>
-      </c>
-      <c r="L198" t="s">
+      <c r="M198" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>14</v>
+      </c>
+      <c r="I199" t="s">
+        <v>8</v>
+      </c>
+      <c r="L199" t="s">
         <v>342</v>
       </c>
-      <c r="M198" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13">
-      <c r="A199">
-        <v>14</v>
-      </c>
-      <c r="I199" t="s">
-        <v>8</v>
-      </c>
-      <c r="L199" t="s">
+      <c r="M199" t="s">
         <v>343</v>
       </c>
-      <c r="M199" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13">
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>3</v>
       </c>
@@ -5296,187 +5348,187 @@
         <v>8</v>
       </c>
       <c r="L200" t="s">
+        <v>344</v>
+      </c>
+      <c r="M200" t="s">
         <v>345</v>
       </c>
-      <c r="M200" t="s">
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>14</v>
+      </c>
+      <c r="I201" t="s">
+        <v>8</v>
+      </c>
+      <c r="L201" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="201" spans="1:13">
-      <c r="A201">
-        <v>14</v>
-      </c>
-      <c r="I201" t="s">
-        <v>8</v>
-      </c>
-      <c r="L201" t="s">
+      <c r="M201" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>14</v>
+      </c>
+      <c r="I202" t="s">
+        <v>8</v>
+      </c>
+      <c r="L202" t="s">
         <v>347</v>
       </c>
-      <c r="M201" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13">
-      <c r="A202">
-        <v>14</v>
-      </c>
-      <c r="I202" t="s">
-        <v>8</v>
-      </c>
-      <c r="L202" t="s">
+      <c r="M202" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>14</v>
+      </c>
+      <c r="I203" t="s">
+        <v>8</v>
+      </c>
+      <c r="L203" t="s">
         <v>348</v>
       </c>
-      <c r="M202" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13">
-      <c r="A203">
-        <v>14</v>
-      </c>
-      <c r="I203" t="s">
-        <v>8</v>
-      </c>
-      <c r="L203" t="s">
+      <c r="M203" t="s">
         <v>349</v>
       </c>
-      <c r="M203" t="s">
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>14</v>
+      </c>
+      <c r="I204" t="s">
+        <v>8</v>
+      </c>
+      <c r="L204" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="204" spans="1:13">
-      <c r="A204">
-        <v>14</v>
-      </c>
-      <c r="I204" t="s">
-        <v>8</v>
-      </c>
-      <c r="L204" t="s">
+      <c r="M204" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>14</v>
+      </c>
+      <c r="I205" t="s">
+        <v>8</v>
+      </c>
+      <c r="L205" t="s">
         <v>351</v>
       </c>
-      <c r="M204" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13">
-      <c r="A205">
-        <v>14</v>
-      </c>
-      <c r="I205" t="s">
-        <v>8</v>
-      </c>
-      <c r="L205" t="s">
+      <c r="M205" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>14</v>
+      </c>
+      <c r="I206" t="s">
+        <v>8</v>
+      </c>
+      <c r="L206" t="s">
         <v>352</v>
       </c>
-      <c r="M205" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13">
-      <c r="A206">
-        <v>14</v>
-      </c>
-      <c r="I206" t="s">
-        <v>8</v>
-      </c>
-      <c r="L206" t="s">
+      <c r="M206" t="s">
         <v>353</v>
       </c>
-      <c r="M206" t="s">
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>14</v>
+      </c>
+      <c r="I207" t="s">
+        <v>8</v>
+      </c>
+      <c r="L207" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="207" spans="1:13">
-      <c r="A207">
-        <v>14</v>
-      </c>
-      <c r="I207" t="s">
-        <v>8</v>
-      </c>
-      <c r="L207" t="s">
+      <c r="M207" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>8</v>
+      </c>
+      <c r="H208" t="s">
+        <v>124</v>
+      </c>
+      <c r="I208" t="s">
+        <v>8</v>
+      </c>
+      <c r="L208" t="s">
         <v>355</v>
       </c>
-      <c r="M207" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13">
-      <c r="A208">
-        <v>8</v>
-      </c>
-      <c r="H208" t="s">
-        <v>125</v>
-      </c>
-      <c r="I208" t="s">
-        <v>8</v>
-      </c>
-      <c r="L208" t="s">
+      <c r="M208" t="s">
         <v>356</v>
       </c>
-      <c r="M208" t="s">
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>14</v>
+      </c>
+      <c r="I209" t="s">
+        <v>8</v>
+      </c>
+      <c r="L209" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="209" spans="1:13">
-      <c r="A209">
-        <v>14</v>
-      </c>
-      <c r="I209" t="s">
-        <v>8</v>
-      </c>
-      <c r="L209" t="s">
+      <c r="M209" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>14</v>
+      </c>
+      <c r="I210" t="s">
+        <v>8</v>
+      </c>
+      <c r="L210" t="s">
         <v>358</v>
       </c>
-      <c r="M209" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13">
-      <c r="A210">
-        <v>14</v>
-      </c>
-      <c r="I210" t="s">
-        <v>8</v>
-      </c>
-      <c r="L210" t="s">
+      <c r="M210" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>3</v>
+      </c>
+      <c r="H211" t="s">
+        <v>199</v>
+      </c>
+      <c r="I211" t="s">
+        <v>8</v>
+      </c>
+      <c r="L211" t="s">
         <v>359</v>
       </c>
-      <c r="M210" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13">
-      <c r="A211">
-        <v>3</v>
-      </c>
-      <c r="H211" t="s">
-        <v>200</v>
-      </c>
-      <c r="I211" t="s">
-        <v>8</v>
-      </c>
-      <c r="L211" t="s">
+      <c r="M211" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>14</v>
+      </c>
+      <c r="I212" t="s">
+        <v>8</v>
+      </c>
+      <c r="L212" t="s">
         <v>360</v>
       </c>
-      <c r="M211" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13">
-      <c r="A212">
-        <v>14</v>
-      </c>
-      <c r="I212" t="s">
-        <v>8</v>
-      </c>
-      <c r="L212" t="s">
-        <v>361</v>
-      </c>
       <c r="M212" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>3</v>
       </c>
@@ -5487,145 +5539,145 @@
         <v>8</v>
       </c>
       <c r="L213" t="s">
+        <v>361</v>
+      </c>
+      <c r="M213" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>14</v>
+      </c>
+      <c r="I214" t="s">
+        <v>8</v>
+      </c>
+      <c r="L214" t="s">
         <v>362</v>
       </c>
-      <c r="M213" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13">
-      <c r="A214">
-        <v>14</v>
-      </c>
-      <c r="I214" t="s">
-        <v>8</v>
-      </c>
-      <c r="L214" t="s">
+      <c r="M214" t="s">
         <v>363</v>
       </c>
-      <c r="M214" t="s">
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>3</v>
+      </c>
+      <c r="H215" t="s">
+        <v>199</v>
+      </c>
+      <c r="I215" t="s">
+        <v>8</v>
+      </c>
+      <c r="L215" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="215" spans="1:13">
-      <c r="A215">
-        <v>3</v>
-      </c>
-      <c r="H215" t="s">
-        <v>200</v>
-      </c>
-      <c r="I215" t="s">
-        <v>8</v>
-      </c>
-      <c r="L215" t="s">
+      <c r="M215" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>14</v>
+      </c>
+      <c r="I216" t="s">
+        <v>8</v>
+      </c>
+      <c r="L216" t="s">
         <v>365</v>
       </c>
-      <c r="M215" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13">
-      <c r="A216">
-        <v>14</v>
-      </c>
-      <c r="I216" t="s">
-        <v>8</v>
-      </c>
-      <c r="L216" t="s">
+      <c r="M216" t="s">
         <v>366</v>
       </c>
-      <c r="M216" t="s">
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>14</v>
+      </c>
+      <c r="I217" t="s">
+        <v>8</v>
+      </c>
+      <c r="L217" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="217" spans="1:13">
-      <c r="A217">
-        <v>14</v>
-      </c>
-      <c r="I217" t="s">
-        <v>8</v>
-      </c>
-      <c r="L217" t="s">
+      <c r="M217" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>14</v>
+      </c>
+      <c r="I218" t="s">
+        <v>8</v>
+      </c>
+      <c r="L218" t="s">
         <v>368</v>
       </c>
-      <c r="M217" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13">
-      <c r="A218">
-        <v>14</v>
-      </c>
-      <c r="I218" t="s">
-        <v>8</v>
-      </c>
-      <c r="L218" t="s">
+      <c r="M218" t="s">
         <v>369</v>
       </c>
-      <c r="M218" t="s">
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>14</v>
+      </c>
+      <c r="I219" t="s">
+        <v>8</v>
+      </c>
+      <c r="L219" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="219" spans="1:13">
-      <c r="A219">
-        <v>14</v>
-      </c>
-      <c r="I219" t="s">
-        <v>8</v>
-      </c>
-      <c r="L219" t="s">
+      <c r="M219" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>8</v>
+      </c>
+      <c r="H220" t="s">
+        <v>163</v>
+      </c>
+      <c r="I220" t="s">
+        <v>8</v>
+      </c>
+      <c r="L220" t="s">
         <v>371</v>
       </c>
-      <c r="M219" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13">
-      <c r="A220">
-        <v>8</v>
-      </c>
-      <c r="H220" t="s">
-        <v>164</v>
-      </c>
-      <c r="I220" t="s">
-        <v>8</v>
-      </c>
-      <c r="L220" t="s">
+      <c r="M220" t="s">
         <v>372</v>
       </c>
-      <c r="M220" t="s">
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>14</v>
+      </c>
+      <c r="I221" t="s">
+        <v>8</v>
+      </c>
+      <c r="L221" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="221" spans="1:13">
-      <c r="A221">
-        <v>14</v>
-      </c>
-      <c r="I221" t="s">
-        <v>8</v>
-      </c>
-      <c r="L221" t="s">
+      <c r="M221" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>14</v>
+      </c>
+      <c r="I222" t="s">
+        <v>8</v>
+      </c>
+      <c r="L222" t="s">
         <v>374</v>
       </c>
-      <c r="M221" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13">
-      <c r="A222">
-        <v>14</v>
-      </c>
-      <c r="I222" t="s">
-        <v>8</v>
-      </c>
-      <c r="L222" t="s">
-        <v>375</v>
-      </c>
       <c r="M222" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>7</v>
       </c>
@@ -5633,106 +5685,106 @@
         <v>8</v>
       </c>
       <c r="J223" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K223" t="s">
         <v>10</v>
       </c>
       <c r="L223" t="s">
+        <v>375</v>
+      </c>
+      <c r="M223" t="s">
         <v>376</v>
       </c>
-      <c r="M223" t="s">
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>14</v>
+      </c>
+      <c r="I224" t="s">
+        <v>8</v>
+      </c>
+      <c r="L224" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="224" spans="1:13">
-      <c r="A224">
-        <v>14</v>
-      </c>
-      <c r="I224" t="s">
-        <v>8</v>
-      </c>
-      <c r="L224" t="s">
+      <c r="M224" t="s">
         <v>378</v>
       </c>
-      <c r="M224" t="s">
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>14</v>
+      </c>
+      <c r="I225" t="s">
+        <v>8</v>
+      </c>
+      <c r="L225" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="225" spans="1:13">
-      <c r="A225">
-        <v>14</v>
-      </c>
-      <c r="I225" t="s">
-        <v>8</v>
-      </c>
-      <c r="L225" t="s">
+      <c r="M225" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>14</v>
+      </c>
+      <c r="I226" t="s">
+        <v>8</v>
+      </c>
+      <c r="L226" t="s">
         <v>380</v>
       </c>
-      <c r="M225" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13">
-      <c r="A226">
-        <v>14</v>
-      </c>
-      <c r="I226" t="s">
-        <v>8</v>
-      </c>
-      <c r="L226" t="s">
+      <c r="M226" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>3</v>
+      </c>
+      <c r="H227" t="s">
+        <v>276</v>
+      </c>
+      <c r="I227" t="s">
+        <v>8</v>
+      </c>
+      <c r="L227" t="s">
         <v>381</v>
       </c>
-      <c r="M226" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13">
-      <c r="A227">
-        <v>3</v>
-      </c>
-      <c r="H227" t="s">
-        <v>277</v>
-      </c>
-      <c r="I227" t="s">
-        <v>8</v>
-      </c>
-      <c r="L227" t="s">
+      <c r="M227" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>14</v>
+      </c>
+      <c r="I228" t="s">
+        <v>8</v>
+      </c>
+      <c r="L228" t="s">
         <v>382</v>
       </c>
-      <c r="M227" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13">
-      <c r="A228">
-        <v>14</v>
-      </c>
-      <c r="I228" t="s">
-        <v>8</v>
-      </c>
-      <c r="L228" t="s">
+      <c r="M228" t="s">
         <v>383</v>
       </c>
-      <c r="M228" t="s">
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>14</v>
+      </c>
+      <c r="I229" t="s">
+        <v>8</v>
+      </c>
+      <c r="L229" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="229" spans="1:13">
-      <c r="A229">
-        <v>14</v>
-      </c>
-      <c r="I229" t="s">
-        <v>8</v>
-      </c>
-      <c r="L229" t="s">
-        <v>385</v>
-      </c>
       <c r="M229" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>5</v>
       </c>
@@ -5743,36 +5795,36 @@
         <v>66</v>
       </c>
       <c r="D230" t="s">
+        <v>94</v>
+      </c>
+      <c r="H230" t="s">
         <v>95</v>
       </c>
-      <c r="H230" t="s">
-        <v>96</v>
-      </c>
       <c r="I230" t="s">
         <v>8</v>
       </c>
       <c r="L230" t="s">
+        <v>385</v>
+      </c>
+      <c r="M230" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>14</v>
+      </c>
+      <c r="I231" t="s">
+        <v>8</v>
+      </c>
+      <c r="L231" t="s">
         <v>386</v>
       </c>
-      <c r="M230" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13">
-      <c r="A231">
-        <v>14</v>
-      </c>
-      <c r="I231" t="s">
-        <v>8</v>
-      </c>
-      <c r="L231" t="s">
-        <v>387</v>
-      </c>
       <c r="M231" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>3</v>
       </c>
@@ -5783,13 +5835,13 @@
         <v>8</v>
       </c>
       <c r="L232" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M232" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>5</v>
       </c>
@@ -5800,33 +5852,33 @@
         <v>27</v>
       </c>
       <c r="D233" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I233" t="s">
         <v>8</v>
       </c>
       <c r="L233" t="s">
+        <v>388</v>
+      </c>
+      <c r="M233" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>14</v>
+      </c>
+      <c r="I234" t="s">
+        <v>8</v>
+      </c>
+      <c r="L234" t="s">
         <v>389</v>
       </c>
-      <c r="M233" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13">
-      <c r="A234">
-        <v>14</v>
-      </c>
-      <c r="I234" t="s">
-        <v>8</v>
-      </c>
-      <c r="L234" t="s">
+      <c r="M234" t="s">
         <v>390</v>
       </c>
-      <c r="M234" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13">
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>5</v>
       </c>
@@ -5837,73 +5889,73 @@
         <v>77</v>
       </c>
       <c r="D235" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I235" t="s">
         <v>8</v>
       </c>
       <c r="L235" t="s">
+        <v>391</v>
+      </c>
+      <c r="M235" t="s">
         <v>392</v>
       </c>
-      <c r="M235" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13">
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>5</v>
       </c>
       <c r="B236" t="s">
+        <v>393</v>
+      </c>
+      <c r="C236" t="s">
+        <v>393</v>
+      </c>
+      <c r="D236" t="s">
+        <v>94</v>
+      </c>
+      <c r="H236" t="s">
+        <v>236</v>
+      </c>
+      <c r="I236" t="s">
+        <v>8</v>
+      </c>
+      <c r="L236" t="s">
         <v>394</v>
       </c>
-      <c r="C236" t="s">
-        <v>394</v>
-      </c>
-      <c r="D236" t="s">
-        <v>95</v>
-      </c>
-      <c r="H236" t="s">
-        <v>237</v>
-      </c>
-      <c r="I236" t="s">
-        <v>8</v>
-      </c>
-      <c r="L236" t="s">
+      <c r="M236" t="s">
         <v>395</v>
       </c>
-      <c r="M236" t="s">
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>14</v>
+      </c>
+      <c r="I237" t="s">
+        <v>8</v>
+      </c>
+      <c r="L237" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="237" spans="1:13">
-      <c r="A237">
-        <v>14</v>
-      </c>
-      <c r="I237" t="s">
-        <v>8</v>
-      </c>
-      <c r="L237" t="s">
+      <c r="M237" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>14</v>
+      </c>
+      <c r="I238" t="s">
+        <v>8</v>
+      </c>
+      <c r="L238" t="s">
         <v>397</v>
       </c>
-      <c r="M237" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13">
-      <c r="A238">
-        <v>14</v>
-      </c>
-      <c r="I238" t="s">
-        <v>8</v>
-      </c>
-      <c r="L238" t="s">
-        <v>398</v>
-      </c>
       <c r="M238" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>5</v>
       </c>
@@ -5914,47 +5966,47 @@
         <v>54</v>
       </c>
       <c r="D239" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I239" t="s">
         <v>8</v>
       </c>
       <c r="L239" t="s">
+        <v>398</v>
+      </c>
+      <c r="M239" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>14</v>
+      </c>
+      <c r="I240" t="s">
+        <v>8</v>
+      </c>
+      <c r="L240" t="s">
         <v>399</v>
       </c>
-      <c r="M239" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13">
-      <c r="A240">
-        <v>14</v>
-      </c>
-      <c r="I240" t="s">
-        <v>8</v>
-      </c>
-      <c r="L240" t="s">
+      <c r="M240" t="s">
         <v>400</v>
       </c>
-      <c r="M240" t="s">
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>14</v>
+      </c>
+      <c r="I241" t="s">
+        <v>8</v>
+      </c>
+      <c r="L241" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="241" spans="1:13">
-      <c r="A241">
-        <v>14</v>
-      </c>
-      <c r="I241" t="s">
-        <v>8</v>
-      </c>
-      <c r="L241" t="s">
-        <v>402</v>
-      </c>
       <c r="M241" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>5</v>
       </c>
@@ -5965,50 +6017,50 @@
         <v>85</v>
       </c>
       <c r="D242" t="s">
+        <v>94</v>
+      </c>
+      <c r="H242" t="s">
         <v>95</v>
       </c>
-      <c r="H242" t="s">
-        <v>96</v>
-      </c>
       <c r="I242" t="s">
         <v>8</v>
       </c>
       <c r="L242" t="s">
+        <v>402</v>
+      </c>
+      <c r="M242" t="s">
         <v>403</v>
       </c>
-      <c r="M242" t="s">
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>14</v>
+      </c>
+      <c r="I243" t="s">
+        <v>8</v>
+      </c>
+      <c r="L243" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="243" spans="1:13">
-      <c r="A243">
-        <v>14</v>
-      </c>
-      <c r="I243" t="s">
-        <v>8</v>
-      </c>
-      <c r="L243" t="s">
+      <c r="M243" t="s">
         <v>405</v>
       </c>
-      <c r="M243" t="s">
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>14</v>
+      </c>
+      <c r="I244" t="s">
+        <v>8</v>
+      </c>
+      <c r="L244" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="244" spans="1:13">
-      <c r="A244">
-        <v>14</v>
-      </c>
-      <c r="I244" t="s">
-        <v>8</v>
-      </c>
-      <c r="L244" t="s">
+      <c r="M244" t="s">
         <v>407</v>
       </c>
-      <c r="M244" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13">
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>5</v>
       </c>
@@ -6025,27 +6077,27 @@
         <v>8</v>
       </c>
       <c r="L245" t="s">
+        <v>408</v>
+      </c>
+      <c r="M245" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>14</v>
+      </c>
+      <c r="I246" t="s">
+        <v>8</v>
+      </c>
+      <c r="L246" t="s">
         <v>409</v>
       </c>
-      <c r="M245" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13">
-      <c r="A246">
-        <v>14</v>
-      </c>
-      <c r="I246" t="s">
-        <v>8</v>
-      </c>
-      <c r="L246" t="s">
-        <v>410</v>
-      </c>
       <c r="M246" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>5</v>
       </c>
@@ -6062,13 +6114,13 @@
         <v>8</v>
       </c>
       <c r="L247" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M247" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>5</v>
       </c>
@@ -6085,30 +6137,30 @@
         <v>8</v>
       </c>
       <c r="L248" t="s">
+        <v>411</v>
+      </c>
+      <c r="M248" t="s">
         <v>412</v>
       </c>
-      <c r="M248" t="s">
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>3</v>
+      </c>
+      <c r="H249" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="249" spans="1:13">
-      <c r="A249">
-        <v>3</v>
-      </c>
-      <c r="H249" t="s">
+      <c r="I249" t="s">
+        <v>8</v>
+      </c>
+      <c r="L249" t="s">
         <v>414</v>
       </c>
-      <c r="I249" t="s">
-        <v>8</v>
-      </c>
-      <c r="L249" t="s">
-        <v>415</v>
-      </c>
       <c r="M249" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1</v>
       </c>
@@ -6134,13 +6186,13 @@
         <v>8</v>
       </c>
       <c r="L250" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M250" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>3</v>
       </c>
@@ -6151,13 +6203,13 @@
         <v>8</v>
       </c>
       <c r="L251" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M251" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1</v>
       </c>
@@ -6171,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E252" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F252" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G252" t="s">
         <v>6</v>
@@ -6183,44 +6235,44 @@
         <v>8</v>
       </c>
       <c r="L252" t="s">
+        <v>418</v>
+      </c>
+      <c r="M252" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>14</v>
+      </c>
+      <c r="I253" t="s">
+        <v>8</v>
+      </c>
+      <c r="L253" t="s">
         <v>419</v>
       </c>
-      <c r="M252" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13">
-      <c r="A253">
-        <v>14</v>
-      </c>
-      <c r="I253" t="s">
-        <v>8</v>
-      </c>
-      <c r="L253" t="s">
+      <c r="M253" t="s">
         <v>420</v>
       </c>
-      <c r="M253" t="s">
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>3</v>
+      </c>
+      <c r="H254" t="s">
+        <v>131</v>
+      </c>
+      <c r="I254" t="s">
+        <v>8</v>
+      </c>
+      <c r="L254" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="254" spans="1:13">
-      <c r="A254">
-        <v>3</v>
-      </c>
-      <c r="H254" t="s">
-        <v>132</v>
-      </c>
-      <c r="I254" t="s">
-        <v>8</v>
-      </c>
-      <c r="L254" t="s">
-        <v>422</v>
-      </c>
       <c r="M254" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1</v>
       </c>
@@ -6234,10 +6286,10 @@
         <v>3</v>
       </c>
       <c r="E255" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F255" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G255" t="s">
         <v>6</v>
@@ -6246,52 +6298,52 @@
         <v>8</v>
       </c>
       <c r="L255" t="s">
+        <v>423</v>
+      </c>
+      <c r="M255" t="s">
         <v>424</v>
       </c>
-      <c r="M255" t="s">
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>14</v>
+      </c>
+      <c r="I256" t="s">
+        <v>8</v>
+      </c>
+      <c r="L256" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="256" spans="1:13">
-      <c r="A256">
-        <v>14</v>
-      </c>
-      <c r="I256" t="s">
-        <v>8</v>
-      </c>
-      <c r="L256" t="s">
+      <c r="M256" t="s">
         <v>426</v>
       </c>
-      <c r="M256" t="s">
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>14</v>
+      </c>
+      <c r="L257" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="257" spans="1:13">
-      <c r="A257">
-        <v>14</v>
-      </c>
-      <c r="L257" t="s">
+      <c r="M257" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>14</v>
+      </c>
+      <c r="I258" t="s">
+        <v>8</v>
+      </c>
+      <c r="L258" t="s">
         <v>428</v>
       </c>
-      <c r="M257" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13">
-      <c r="A258">
-        <v>14</v>
-      </c>
-      <c r="I258" t="s">
-        <v>8</v>
-      </c>
-      <c r="L258" t="s">
-        <v>429</v>
-      </c>
       <c r="M258" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1</v>
       </c>
@@ -6320,27 +6372,27 @@
         <v>8</v>
       </c>
       <c r="L259" t="s">
+        <v>429</v>
+      </c>
+      <c r="M259" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>14</v>
+      </c>
+      <c r="I260" t="s">
+        <v>8</v>
+      </c>
+      <c r="L260" t="s">
         <v>430</v>
       </c>
-      <c r="M259" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13">
-      <c r="A260">
-        <v>14</v>
-      </c>
-      <c r="I260" t="s">
-        <v>8</v>
-      </c>
-      <c r="L260" t="s">
+      <c r="M260" t="s">
         <v>431</v>
       </c>
-      <c r="M260" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13">
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1</v>
       </c>
@@ -6366,58 +6418,58 @@
         <v>8</v>
       </c>
       <c r="L261" t="s">
+        <v>432</v>
+      </c>
+      <c r="M261" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>14</v>
+      </c>
+      <c r="I262" t="s">
+        <v>8</v>
+      </c>
+      <c r="L262" t="s">
         <v>433</v>
       </c>
-      <c r="M261" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13">
-      <c r="A262">
-        <v>14</v>
-      </c>
-      <c r="I262" t="s">
-        <v>8</v>
-      </c>
-      <c r="L262" t="s">
+      <c r="M262" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>14</v>
+      </c>
+      <c r="I263" t="s">
+        <v>8</v>
+      </c>
+      <c r="L263" t="s">
         <v>434</v>
       </c>
-      <c r="M262" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13">
-      <c r="A263">
-        <v>14</v>
-      </c>
-      <c r="I263" t="s">
-        <v>8</v>
-      </c>
-      <c r="L263" t="s">
-        <v>435</v>
-      </c>
       <c r="M263" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1</v>
       </c>
       <c r="B264" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C264" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D264" t="s">
         <v>3</v>
       </c>
       <c r="E264" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F264" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G264" t="s">
         <v>6</v>
@@ -6426,13 +6478,13 @@
         <v>8</v>
       </c>
       <c r="L264" t="s">
+        <v>436</v>
+      </c>
+      <c r="M264" t="s">
         <v>437</v>
       </c>
-      <c r="M264" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13">
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>3</v>
       </c>
@@ -6443,27 +6495,27 @@
         <v>8</v>
       </c>
       <c r="L265" t="s">
+        <v>438</v>
+      </c>
+      <c r="M265" t="s">
         <v>439</v>
       </c>
-      <c r="M265" t="s">
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>14</v>
+      </c>
+      <c r="I266" t="s">
+        <v>8</v>
+      </c>
+      <c r="L266" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="266" spans="1:13">
-      <c r="A266">
-        <v>14</v>
-      </c>
-      <c r="I266" t="s">
-        <v>8</v>
-      </c>
-      <c r="L266" t="s">
+      <c r="M266" t="s">
         <v>441</v>
       </c>
-      <c r="M266" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13">
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1</v>
       </c>
@@ -6489,13 +6541,13 @@
         <v>8</v>
       </c>
       <c r="L267" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M267" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>3</v>
       </c>
@@ -6506,27 +6558,27 @@
         <v>8</v>
       </c>
       <c r="L268" t="s">
+        <v>443</v>
+      </c>
+      <c r="M268" t="s">
         <v>444</v>
       </c>
-      <c r="M268" t="s">
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>14</v>
+      </c>
+      <c r="I269" t="s">
+        <v>8</v>
+      </c>
+      <c r="L269" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="269" spans="1:13">
-      <c r="A269">
-        <v>14</v>
-      </c>
-      <c r="I269" t="s">
-        <v>8</v>
-      </c>
-      <c r="L269" t="s">
+      <c r="M269" t="s">
         <v>446</v>
       </c>
-      <c r="M269" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13">
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1</v>
       </c>
@@ -6540,42 +6592,42 @@
         <v>3</v>
       </c>
       <c r="E270" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F270" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G270" t="s">
         <v>6</v>
       </c>
       <c r="H270" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I270" t="s">
         <v>8</v>
       </c>
       <c r="L270" t="s">
+        <v>448</v>
+      </c>
+      <c r="M270" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>14</v>
+      </c>
+      <c r="I271" t="s">
+        <v>8</v>
+      </c>
+      <c r="L271" t="s">
         <v>449</v>
       </c>
-      <c r="M270" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13">
-      <c r="A271">
-        <v>14</v>
-      </c>
-      <c r="I271" t="s">
-        <v>8</v>
-      </c>
-      <c r="L271" t="s">
-        <v>450</v>
-      </c>
       <c r="M271" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1</v>
       </c>
@@ -6604,27 +6656,27 @@
         <v>8</v>
       </c>
       <c r="L272" t="s">
+        <v>450</v>
+      </c>
+      <c r="M272" t="s">
         <v>451</v>
       </c>
-      <c r="M272" t="s">
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>14</v>
+      </c>
+      <c r="I273" t="s">
+        <v>8</v>
+      </c>
+      <c r="L273" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="273" spans="1:13">
-      <c r="A273">
-        <v>14</v>
-      </c>
-      <c r="I273" t="s">
-        <v>8</v>
-      </c>
-      <c r="L273" t="s">
+      <c r="M273" t="s">
         <v>453</v>
       </c>
-      <c r="M273" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="274" spans="1:13">
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1</v>
       </c>
@@ -6638,59 +6690,59 @@
         <v>3</v>
       </c>
       <c r="E274" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F274" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G274" t="s">
         <v>6</v>
       </c>
       <c r="H274" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I274" t="s">
         <v>8</v>
       </c>
       <c r="L274" t="s">
+        <v>455</v>
+      </c>
+      <c r="M274" t="s">
         <v>456</v>
       </c>
-      <c r="M274" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="275" spans="1:13">
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>28</v>
       </c>
       <c r="H275" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I275" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L275" t="s">
+        <v>457</v>
+      </c>
+      <c r="M275" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>14</v>
+      </c>
+      <c r="I276" t="s">
+        <v>8</v>
+      </c>
+      <c r="L276" t="s">
         <v>458</v>
       </c>
-      <c r="M275" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13">
-      <c r="A276">
-        <v>14</v>
-      </c>
-      <c r="I276" t="s">
-        <v>8</v>
-      </c>
-      <c r="L276" t="s">
+      <c r="M276" t="s">
         <v>459</v>
       </c>
-      <c r="M276" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="277" spans="1:13">
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1</v>
       </c>
@@ -6713,64 +6765,64 @@
         <v>6</v>
       </c>
       <c r="H277" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I277" t="s">
         <v>8</v>
       </c>
       <c r="L277" t="s">
+        <v>460</v>
+      </c>
+      <c r="M277" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>14</v>
+      </c>
+      <c r="I278" t="s">
+        <v>8</v>
+      </c>
+      <c r="L278" t="s">
         <v>461</v>
       </c>
-      <c r="M277" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13">
-      <c r="A278">
-        <v>14</v>
-      </c>
-      <c r="I278" t="s">
-        <v>8</v>
-      </c>
-      <c r="L278" t="s">
+      <c r="M278" t="s">
         <v>462</v>
       </c>
-      <c r="M278" t="s">
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>14</v>
+      </c>
+      <c r="I279" t="s">
+        <v>8</v>
+      </c>
+      <c r="L279" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="279" spans="1:13">
-      <c r="A279">
-        <v>14</v>
-      </c>
-      <c r="I279" t="s">
-        <v>8</v>
-      </c>
-      <c r="L279" t="s">
-        <v>464</v>
-      </c>
       <c r="M279" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="280" spans="1:13">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1</v>
       </c>
       <c r="B280" t="s">
+        <v>464</v>
+      </c>
+      <c r="C280" t="s">
+        <v>464</v>
+      </c>
+      <c r="D280" t="s">
+        <v>3</v>
+      </c>
+      <c r="E280" t="s">
         <v>465</v>
       </c>
-      <c r="C280" t="s">
+      <c r="F280" t="s">
         <v>465</v>
-      </c>
-      <c r="D280" t="s">
-        <v>3</v>
-      </c>
-      <c r="E280" t="s">
-        <v>466</v>
-      </c>
-      <c r="F280" t="s">
-        <v>466</v>
       </c>
       <c r="G280" t="s">
         <v>6</v>
@@ -6779,55 +6831,55 @@
         <v>8</v>
       </c>
       <c r="L280" t="s">
+        <v>466</v>
+      </c>
+      <c r="M280" t="s">
         <v>467</v>
       </c>
-      <c r="M280" t="s">
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>14</v>
+      </c>
+      <c r="I281" t="s">
+        <v>8</v>
+      </c>
+      <c r="L281" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="281" spans="1:13">
-      <c r="A281">
-        <v>14</v>
-      </c>
-      <c r="I281" t="s">
-        <v>8</v>
-      </c>
-      <c r="L281" t="s">
+      <c r="M281" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>14</v>
+      </c>
+      <c r="I282" t="s">
+        <v>8</v>
+      </c>
+      <c r="L282" t="s">
         <v>469</v>
       </c>
-      <c r="M281" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="282" spans="1:13">
-      <c r="A282">
-        <v>14</v>
-      </c>
-      <c r="I282" t="s">
-        <v>8</v>
-      </c>
-      <c r="L282" t="s">
+      <c r="M282" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>14</v>
+      </c>
+      <c r="I283" t="s">
+        <v>8</v>
+      </c>
+      <c r="L283" t="s">
         <v>470</v>
       </c>
-      <c r="M282" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="283" spans="1:13">
-      <c r="A283">
-        <v>14</v>
-      </c>
-      <c r="I283" t="s">
-        <v>8</v>
-      </c>
-      <c r="L283" t="s">
-        <v>471</v>
-      </c>
       <c r="M283" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="284" spans="1:13">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1</v>
       </c>
@@ -6850,19 +6902,19 @@
         <v>6</v>
       </c>
       <c r="H284" t="s">
+        <v>471</v>
+      </c>
+      <c r="I284" t="s">
+        <v>8</v>
+      </c>
+      <c r="L284" t="s">
         <v>472</v>
-      </c>
-      <c r="I284" t="s">
-        <v>8</v>
-      </c>
-      <c r="L284" t="s">
-        <v>473</v>
       </c>
       <c r="M284" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1</v>
       </c>
@@ -6888,27 +6940,27 @@
         <v>8</v>
       </c>
       <c r="L285" t="s">
+        <v>473</v>
+      </c>
+      <c r="M285" t="s">
         <v>474</v>
       </c>
-      <c r="M285" t="s">
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>14</v>
+      </c>
+      <c r="I286" t="s">
+        <v>8</v>
+      </c>
+      <c r="L286" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="286" spans="1:13">
-      <c r="A286">
-        <v>14</v>
-      </c>
-      <c r="I286" t="s">
-        <v>8</v>
-      </c>
-      <c r="L286" t="s">
-        <v>476</v>
-      </c>
       <c r="M286" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="287" spans="1:13">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1</v>
       </c>
@@ -6922,10 +6974,10 @@
         <v>3</v>
       </c>
       <c r="E287" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F287" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G287" t="s">
         <v>6</v>
@@ -6934,13 +6986,13 @@
         <v>8</v>
       </c>
       <c r="L287" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M287" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="288" spans="1:13">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>3</v>
       </c>
@@ -6951,27 +7003,27 @@
         <v>8</v>
       </c>
       <c r="L288" t="s">
+        <v>477</v>
+      </c>
+      <c r="M288" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>14</v>
+      </c>
+      <c r="I289" t="s">
+        <v>8</v>
+      </c>
+      <c r="L289" t="s">
         <v>478</v>
       </c>
-      <c r="M288" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="289" spans="1:13">
-      <c r="A289">
-        <v>14</v>
-      </c>
-      <c r="I289" t="s">
-        <v>8</v>
-      </c>
-      <c r="L289" t="s">
+      <c r="M289" t="s">
         <v>479</v>
       </c>
-      <c r="M289" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="290" spans="1:13">
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1</v>
       </c>
@@ -6994,78 +7046,78 @@
         <v>6</v>
       </c>
       <c r="H290" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I290" t="s">
         <v>8</v>
       </c>
       <c r="L290" t="s">
+        <v>480</v>
+      </c>
+      <c r="M290" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>14</v>
+      </c>
+      <c r="I291" t="s">
+        <v>8</v>
+      </c>
+      <c r="L291" t="s">
         <v>481</v>
       </c>
-      <c r="M290" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="291" spans="1:13">
-      <c r="A291">
-        <v>14</v>
-      </c>
-      <c r="I291" t="s">
-        <v>8</v>
-      </c>
-      <c r="L291" t="s">
+      <c r="M291" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>3</v>
+      </c>
+      <c r="H292" t="s">
+        <v>108</v>
+      </c>
+      <c r="I292" t="s">
+        <v>8</v>
+      </c>
+      <c r="L292" t="s">
         <v>482</v>
       </c>
-      <c r="M291" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="292" spans="1:13">
-      <c r="A292">
-        <v>3</v>
-      </c>
-      <c r="H292" t="s">
-        <v>109</v>
-      </c>
-      <c r="I292" t="s">
-        <v>8</v>
-      </c>
-      <c r="L292" t="s">
+      <c r="M292" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>14</v>
+      </c>
+      <c r="I293" t="s">
+        <v>8</v>
+      </c>
+      <c r="L293" t="s">
         <v>483</v>
       </c>
-      <c r="M292" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="293" spans="1:13">
-      <c r="A293">
-        <v>14</v>
-      </c>
-      <c r="I293" t="s">
-        <v>8</v>
-      </c>
-      <c r="L293" t="s">
+      <c r="M293" t="s">
         <v>484</v>
       </c>
-      <c r="M293" t="s">
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>14</v>
+      </c>
+      <c r="I294" t="s">
+        <v>8</v>
+      </c>
+      <c r="L294" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="294" spans="1:13">
-      <c r="A294">
-        <v>14</v>
-      </c>
-      <c r="I294" t="s">
-        <v>8</v>
-      </c>
-      <c r="L294" t="s">
-        <v>486</v>
-      </c>
       <c r="M294" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="295" spans="1:13">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1</v>
       </c>
@@ -7091,13 +7143,13 @@
         <v>8</v>
       </c>
       <c r="L295" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M295" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1</v>
       </c>
@@ -7123,30 +7175,30 @@
         <v>8</v>
       </c>
       <c r="L296" t="s">
+        <v>487</v>
+      </c>
+      <c r="M296" t="s">
         <v>488</v>
       </c>
-      <c r="M296" t="s">
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>3</v>
+      </c>
+      <c r="H297" t="s">
+        <v>178</v>
+      </c>
+      <c r="I297" t="s">
+        <v>8</v>
+      </c>
+      <c r="L297" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="297" spans="1:13">
-      <c r="A297">
-        <v>3</v>
-      </c>
-      <c r="H297" t="s">
-        <v>179</v>
-      </c>
-      <c r="I297" t="s">
-        <v>8</v>
-      </c>
-      <c r="L297" t="s">
+      <c r="M297" t="s">
         <v>490</v>
       </c>
-      <c r="M297" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="298" spans="1:13">
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1</v>
       </c>
@@ -7172,58 +7224,58 @@
         <v>8</v>
       </c>
       <c r="L298" t="s">
+        <v>491</v>
+      </c>
+      <c r="M298" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>14</v>
+      </c>
+      <c r="I299" t="s">
+        <v>8</v>
+      </c>
+      <c r="L299" t="s">
         <v>492</v>
-      </c>
-      <c r="M298" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="299" spans="1:13">
-      <c r="A299">
-        <v>14</v>
-      </c>
-      <c r="I299" t="s">
-        <v>8</v>
-      </c>
-      <c r="L299" t="s">
-        <v>493</v>
       </c>
       <c r="M299" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="300" spans="1:13">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>28</v>
       </c>
       <c r="H300" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I300" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L300" t="s">
+        <v>493</v>
+      </c>
+      <c r="M300" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>14</v>
+      </c>
+      <c r="I301" t="s">
+        <v>8</v>
+      </c>
+      <c r="L301" t="s">
         <v>494</v>
       </c>
-      <c r="M300" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="301" spans="1:13">
-      <c r="A301">
-        <v>14</v>
-      </c>
-      <c r="I301" t="s">
-        <v>8</v>
-      </c>
-      <c r="L301" t="s">
+      <c r="M301" t="s">
         <v>495</v>
       </c>
-      <c r="M301" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="302" spans="1:13">
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1</v>
       </c>
@@ -7237,10 +7289,10 @@
         <v>3</v>
       </c>
       <c r="E302" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F302" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G302" t="s">
         <v>6</v>
@@ -7249,55 +7301,55 @@
         <v>8</v>
       </c>
       <c r="L302" t="s">
+        <v>497</v>
+      </c>
+      <c r="M302" t="s">
         <v>498</v>
       </c>
-      <c r="M302" t="s">
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>14</v>
+      </c>
+      <c r="I303" t="s">
+        <v>8</v>
+      </c>
+      <c r="L303" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="303" spans="1:13">
-      <c r="A303">
-        <v>14</v>
-      </c>
-      <c r="I303" t="s">
-        <v>8</v>
-      </c>
-      <c r="L303" t="s">
+      <c r="M303" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>14</v>
+      </c>
+      <c r="I304" t="s">
+        <v>8</v>
+      </c>
+      <c r="L304" t="s">
         <v>500</v>
       </c>
-      <c r="M303" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="304" spans="1:13">
-      <c r="A304">
-        <v>14</v>
-      </c>
-      <c r="I304" t="s">
-        <v>8</v>
-      </c>
-      <c r="L304" t="s">
+      <c r="M304" t="s">
         <v>501</v>
       </c>
-      <c r="M304" t="s">
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>14</v>
+      </c>
+      <c r="I305" t="s">
+        <v>8</v>
+      </c>
+      <c r="L305" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="305" spans="1:13">
-      <c r="A305">
-        <v>14</v>
-      </c>
-      <c r="I305" t="s">
-        <v>8</v>
-      </c>
-      <c r="L305" t="s">
-        <v>503</v>
-      </c>
       <c r="M305" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="306" spans="1:13">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1</v>
       </c>
@@ -7320,33 +7372,33 @@
         <v>6</v>
       </c>
       <c r="H306" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I306" t="s">
         <v>8</v>
       </c>
       <c r="L306" t="s">
+        <v>503</v>
+      </c>
+      <c r="M306" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>14</v>
+      </c>
+      <c r="I307" t="s">
+        <v>8</v>
+      </c>
+      <c r="L307" t="s">
         <v>504</v>
       </c>
-      <c r="M306" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="307" spans="1:13">
-      <c r="A307">
-        <v>14</v>
-      </c>
-      <c r="I307" t="s">
-        <v>8</v>
-      </c>
-      <c r="L307" t="s">
-        <v>505</v>
-      </c>
       <c r="M307" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="308" spans="1:13">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1</v>
       </c>
@@ -7372,30 +7424,30 @@
         <v>8</v>
       </c>
       <c r="L308" t="s">
+        <v>505</v>
+      </c>
+      <c r="M308" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>3</v>
+      </c>
+      <c r="H309" t="s">
+        <v>471</v>
+      </c>
+      <c r="I309" t="s">
+        <v>8</v>
+      </c>
+      <c r="L309" t="s">
         <v>506</v>
       </c>
-      <c r="M308" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="309" spans="1:13">
-      <c r="A309">
-        <v>3</v>
-      </c>
-      <c r="H309" t="s">
-        <v>472</v>
-      </c>
-      <c r="I309" t="s">
-        <v>8</v>
-      </c>
-      <c r="L309" t="s">
+      <c r="M309" t="s">
         <v>507</v>
       </c>
-      <c r="M309" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="310" spans="1:13">
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1</v>
       </c>
@@ -7409,10 +7461,10 @@
         <v>3</v>
       </c>
       <c r="E310" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F310" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G310" t="s">
         <v>6</v>
@@ -7421,13 +7473,13 @@
         <v>8</v>
       </c>
       <c r="L310" t="s">
+        <v>509</v>
+      </c>
+      <c r="M310" t="s">
         <v>510</v>
       </c>
-      <c r="M310" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="311" spans="1:13">
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>3</v>
       </c>
@@ -7438,30 +7490,30 @@
         <v>8</v>
       </c>
       <c r="L311" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M311" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="312" spans="1:13">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1</v>
       </c>
       <c r="B312" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C312" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D312" t="s">
         <v>3</v>
       </c>
       <c r="E312" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F312" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G312" t="s">
         <v>6</v>
@@ -7470,44 +7522,44 @@
         <v>8</v>
       </c>
       <c r="L312" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M312" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="313" spans="1:13">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>28</v>
       </c>
       <c r="H313" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I313" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L313" t="s">
+        <v>513</v>
+      </c>
+      <c r="M313" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>14</v>
+      </c>
+      <c r="I314" t="s">
+        <v>8</v>
+      </c>
+      <c r="L314" t="s">
         <v>514</v>
       </c>
-      <c r="M313" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="314" spans="1:13">
-      <c r="A314">
-        <v>14</v>
-      </c>
-      <c r="I314" t="s">
-        <v>8</v>
-      </c>
-      <c r="L314" t="s">
+      <c r="M314" t="s">
         <v>515</v>
       </c>
-      <c r="M314" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="315" spans="1:13">
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1</v>
       </c>
@@ -7533,41 +7585,41 @@
         <v>8</v>
       </c>
       <c r="L315" t="s">
+        <v>516</v>
+      </c>
+      <c r="M315" t="s">
         <v>517</v>
       </c>
-      <c r="M315" t="s">
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>14</v>
+      </c>
+      <c r="I316" t="s">
+        <v>8</v>
+      </c>
+      <c r="L316" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="316" spans="1:13">
-      <c r="A316">
-        <v>14</v>
-      </c>
-      <c r="I316" t="s">
-        <v>8</v>
-      </c>
-      <c r="L316" t="s">
+      <c r="M316" t="s">
         <v>519</v>
       </c>
-      <c r="M316" t="s">
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>14</v>
+      </c>
+      <c r="I317" t="s">
+        <v>8</v>
+      </c>
+      <c r="L317" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="317" spans="1:13">
-      <c r="A317">
-        <v>14</v>
-      </c>
-      <c r="I317" t="s">
-        <v>8</v>
-      </c>
-      <c r="L317" t="s">
-        <v>521</v>
-      </c>
       <c r="M317" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="318" spans="1:13">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>3</v>
       </c>
@@ -7578,30 +7630,30 @@
         <v>8</v>
       </c>
       <c r="L318" t="s">
+        <v>521</v>
+      </c>
+      <c r="M318" t="s">
         <v>522</v>
       </c>
-      <c r="M318" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="319" spans="1:13">
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1</v>
       </c>
       <c r="B319" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C319" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D319" t="s">
         <v>3</v>
       </c>
       <c r="E319" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F319" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G319" t="s">
         <v>6</v>
@@ -7610,41 +7662,41 @@
         <v>8</v>
       </c>
       <c r="L319" t="s">
+        <v>524</v>
+      </c>
+      <c r="M319" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>14</v>
+      </c>
+      <c r="I320" t="s">
+        <v>8</v>
+      </c>
+      <c r="L320" t="s">
         <v>525</v>
       </c>
-      <c r="M319" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="320" spans="1:13">
-      <c r="A320">
-        <v>14</v>
-      </c>
-      <c r="I320" t="s">
-        <v>8</v>
-      </c>
-      <c r="L320" t="s">
+      <c r="M320" t="s">
         <v>526</v>
       </c>
-      <c r="M320" t="s">
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>14</v>
+      </c>
+      <c r="I321" t="s">
+        <v>8</v>
+      </c>
+      <c r="L321" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="321" spans="1:13">
-      <c r="A321">
-        <v>14</v>
-      </c>
-      <c r="I321" t="s">
-        <v>8</v>
-      </c>
-      <c r="L321" t="s">
-        <v>528</v>
-      </c>
       <c r="M321" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="322" spans="1:13">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1</v>
       </c>
@@ -7658,10 +7710,10 @@
         <v>3</v>
       </c>
       <c r="E322" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F322" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G322" t="s">
         <v>6</v>
@@ -7670,30 +7722,30 @@
         <v>8</v>
       </c>
       <c r="L322" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M322" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="323" spans="1:13">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1</v>
       </c>
       <c r="B323" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C323" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D323" t="s">
         <v>3</v>
       </c>
       <c r="E323" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F323" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G323" t="s">
         <v>6</v>
@@ -7702,38 +7754,38 @@
         <v>8</v>
       </c>
       <c r="L323" t="s">
+        <v>529</v>
+      </c>
+      <c r="M323" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>3</v>
+      </c>
+      <c r="H324" t="s">
         <v>530</v>
       </c>
-      <c r="M323" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="324" spans="1:13">
-      <c r="A324">
-        <v>3</v>
-      </c>
-      <c r="H324" t="s">
+      <c r="I324" t="s">
+        <v>8</v>
+      </c>
+      <c r="L324" t="s">
         <v>531</v>
       </c>
-      <c r="I324" t="s">
-        <v>8</v>
-      </c>
-      <c r="L324" t="s">
+      <c r="M324" t="s">
         <v>532</v>
       </c>
-      <c r="M324" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="325" spans="1:13">
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1</v>
       </c>
       <c r="B325" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C325" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D325" t="s">
         <v>3</v>
@@ -7751,27 +7803,27 @@
         <v>8</v>
       </c>
       <c r="L325" t="s">
+        <v>534</v>
+      </c>
+      <c r="M325" t="s">
         <v>535</v>
       </c>
-      <c r="M325" t="s">
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>14</v>
+      </c>
+      <c r="I326" t="s">
+        <v>8</v>
+      </c>
+      <c r="L326" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="326" spans="1:13">
-      <c r="A326">
-        <v>14</v>
-      </c>
-      <c r="I326" t="s">
-        <v>8</v>
-      </c>
-      <c r="L326" t="s">
-        <v>537</v>
-      </c>
       <c r="M326" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="327" spans="1:13">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>3</v>
       </c>
@@ -7782,35 +7834,35 @@
         <v>8</v>
       </c>
       <c r="L327" t="s">
+        <v>537</v>
+      </c>
+      <c r="M327" t="s">
         <v>538</v>
       </c>
-      <c r="M327" t="s">
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>14</v>
+      </c>
+      <c r="I328" t="s">
+        <v>8</v>
+      </c>
+      <c r="L328" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="328" spans="1:13">
-      <c r="A328">
-        <v>14</v>
-      </c>
-      <c r="I328" t="s">
-        <v>8</v>
-      </c>
-      <c r="L328" t="s">
-        <v>540</v>
-      </c>
       <c r="M328" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="329" spans="1:13">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1</v>
       </c>
       <c r="B329" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C329" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D329" t="s">
         <v>3</v>
@@ -7828,58 +7880,58 @@
         <v>8</v>
       </c>
       <c r="L329" t="s">
+        <v>541</v>
+      </c>
+      <c r="M329" t="s">
         <v>542</v>
       </c>
-      <c r="M329" t="s">
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>14</v>
+      </c>
+      <c r="I330" t="s">
+        <v>8</v>
+      </c>
+      <c r="L330" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="330" spans="1:13">
-      <c r="A330">
-        <v>14</v>
-      </c>
-      <c r="I330" t="s">
-        <v>8</v>
-      </c>
-      <c r="L330" t="s">
+      <c r="M330" t="s">
         <v>544</v>
       </c>
-      <c r="M330" t="s">
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>3</v>
+      </c>
+      <c r="H331" t="s">
+        <v>530</v>
+      </c>
+      <c r="I331" t="s">
+        <v>8</v>
+      </c>
+      <c r="L331" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="331" spans="1:13">
-      <c r="A331">
-        <v>3</v>
-      </c>
-      <c r="H331" t="s">
-        <v>531</v>
-      </c>
-      <c r="I331" t="s">
-        <v>8</v>
-      </c>
-      <c r="L331" t="s">
+      <c r="M331" t="s">
         <v>546</v>
       </c>
-      <c r="M331" t="s">
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>14</v>
+      </c>
+      <c r="I332" t="s">
+        <v>8</v>
+      </c>
+      <c r="L332" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="332" spans="1:13">
-      <c r="A332">
-        <v>14</v>
-      </c>
-      <c r="I332" t="s">
-        <v>8</v>
-      </c>
-      <c r="L332" t="s">
-        <v>548</v>
-      </c>
       <c r="M332" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="333" spans="1:13">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1</v>
       </c>
@@ -7905,13 +7957,13 @@
         <v>8</v>
       </c>
       <c r="L333" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M333" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="334" spans="1:13">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1</v>
       </c>
@@ -7934,19 +7986,19 @@
         <v>6</v>
       </c>
       <c r="H334" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I334" t="s">
         <v>8</v>
       </c>
       <c r="L334" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M334" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="335" spans="1:13">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>14</v>
       </c>
@@ -7954,21 +8006,21 @@
         <v>8</v>
       </c>
       <c r="L335" t="s">
+        <v>550</v>
+      </c>
+      <c r="M335" t="s">
         <v>551</v>
       </c>
-      <c r="M335" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="336" spans="1:13">
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1</v>
       </c>
       <c r="B336" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C336" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D336" t="s">
         <v>3</v>
@@ -7986,49 +8038,49 @@
         <v>8</v>
       </c>
       <c r="L336" t="s">
+        <v>553</v>
+      </c>
+      <c r="M336" t="s">
         <v>554</v>
       </c>
-      <c r="M336" t="s">
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>14</v>
+      </c>
+      <c r="I337" t="s">
+        <v>8</v>
+      </c>
+      <c r="L337" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="337" spans="1:13">
-      <c r="A337">
-        <v>14</v>
-      </c>
-      <c r="I337" t="s">
-        <v>8</v>
-      </c>
-      <c r="L337" t="s">
+      <c r="M337" t="s">
         <v>556</v>
       </c>
-      <c r="M337" t="s">
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>14</v>
+      </c>
+      <c r="I338" t="s">
+        <v>8</v>
+      </c>
+      <c r="L338" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="338" spans="1:13">
-      <c r="A338">
-        <v>14</v>
-      </c>
-      <c r="I338" t="s">
-        <v>8</v>
-      </c>
-      <c r="L338" t="s">
-        <v>558</v>
-      </c>
       <c r="M338" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="339" spans="1:13">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1</v>
       </c>
       <c r="B339" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C339" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D339" t="s">
         <v>3</v>
@@ -8046,41 +8098,41 @@
         <v>8</v>
       </c>
       <c r="L339" t="s">
+        <v>559</v>
+      </c>
+      <c r="M339" t="s">
         <v>560</v>
       </c>
-      <c r="M339" t="s">
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>3</v>
+      </c>
+      <c r="H340" t="s">
+        <v>471</v>
+      </c>
+      <c r="I340" t="s">
+        <v>8</v>
+      </c>
+      <c r="L340" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="340" spans="1:13">
-      <c r="A340">
-        <v>3</v>
-      </c>
-      <c r="H340" t="s">
-        <v>472</v>
-      </c>
-      <c r="I340" t="s">
-        <v>8</v>
-      </c>
-      <c r="L340" t="s">
+      <c r="M340" t="s">
         <v>562</v>
       </c>
-      <c r="M340" t="s">
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>14</v>
+      </c>
+      <c r="I341" t="s">
+        <v>8</v>
+      </c>
+      <c r="L341" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="341" spans="1:13">
-      <c r="A341">
-        <v>14</v>
-      </c>
-      <c r="I341" t="s">
-        <v>8</v>
-      </c>
-      <c r="L341" t="s">
+      <c r="M341" t="s">
         <v>564</v>
-      </c>
-      <c r="M341" t="s">
-        <v>565</v>
       </c>
     </row>
   </sheetData>
